--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE98E02-B2AC-43C4-8935-B46FADECBFF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90231EA-342B-4A91-9649-5B9B292F856E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23265" yWindow="1545" windowWidth="25590" windowHeight="21630" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4839,7 +4839,7 @@
   <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90231EA-342B-4A91-9649-5B9B292F856E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F67F0-62E0-4F91-9F1B-11C6F78B9223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>чр 1908</t>
   </si>
   <si>
-    <t>чс 1908</t>
-  </si>
-  <si>
     <t xml:space="preserve">Бессарабская </t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>чж 1909</t>
+  </si>
+  <si>
+    <t>чу 1908</t>
   </si>
 </sst>
 </file>
@@ -4839,7 +4839,7 @@
   <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="3">
         <v>1004677</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="3">
         <v>2365034</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3">
         <v>1577216</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3">
         <v>3377652</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3">
         <v>3611141</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3">
         <v>2980171</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3">
         <v>1397192</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3">
         <v>1668477</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3">
         <v>2896063</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3">
         <v>1430600</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3">
         <v>1946092</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="3">
         <v>1568366</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3">
         <v>2516558</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3">
         <v>1843892</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3">
         <v>3504834</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="3">
         <v>1349225</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="3">
         <v>2448043</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="3">
         <v>3466475</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3">
         <v>3102911</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
         <v>76439</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="3">
         <v>1830741</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="3">
         <v>2838117</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="3">
         <v>3160667</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="3">
         <v>2819741</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="3">
         <v>102036</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="3">
         <v>2757746</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="3">
         <v>82726333</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3">
         <v>3111221</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="3">
         <v>128097607</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="3">
         <v>763706</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="3">
         <v>334829</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="3">
         <v>159434</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="3">
         <v>673224</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="3">
         <v>1147226</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="3">
         <v>345102</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79" s="3">
         <v>2519883</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80" s="3">
         <v>1092282</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81" s="3">
         <v>1175415</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="3">
         <v>1104465</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="3">
         <v>1247473</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="3">
         <v>120129</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="3">
         <v>869800</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="3">
         <v>11552968</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="3">
         <v>157272</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="3">
         <v>817975</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="3">
         <v>843151</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="3">
         <v>663058</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="3">
         <v>530805</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" s="3">
         <v>1798814</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="3">
         <v>3100940</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="3">
         <v>269305</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="3">
         <v>6209</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="3">
         <v>8187529</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97" s="3">
         <v>1121002</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="3">
         <v>450989</v>
@@ -6223,21 +6223,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="3">
         <v>879745</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="3">
         <v>771016</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3">
         <v>1117365</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102" s="3">
         <v>1692602</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" s="3">
         <v>614171</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="3">
         <v>750228</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="3">
         <v>1950334</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="3">
         <v>9347452</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="3">
         <v>29087949</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="3">
         <v>157185556</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F67F0-62E0-4F91-9F1B-11C6F78B9223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8F7BE-212E-4A3A-8D8E-E6D3B7C5E4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="62385" yWindow="6030" windowWidth="36105" windowHeight="16110" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,15 +51,6 @@
     <t>р 1906</t>
   </si>
   <si>
-    <t>c 1908</t>
-  </si>
-  <si>
-    <t>c 1907</t>
-  </si>
-  <si>
-    <t>c 1906</t>
-  </si>
-  <si>
     <t>п 1908</t>
   </si>
   <si>
@@ -527,6 +523,15 @@
   </si>
   <si>
     <t>чу 1908</t>
+  </si>
+  <si>
+    <t>с 1908</t>
+  </si>
+  <si>
+    <t>с 1907</t>
+  </si>
+  <si>
+    <t>с 1906</t>
   </si>
 </sst>
 </file>
@@ -894,16 +899,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2D3C9-4506-4EBA-B5D1-1E4158C69B96}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,38 +923,38 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>42.2</v>
@@ -994,9 +999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>56.2</v>
@@ -1041,9 +1046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>30.6</v>
@@ -1088,9 +1093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>34.4</v>
@@ -1135,9 +1140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>40.6</v>
@@ -1182,9 +1187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>36.5</v>
@@ -1229,9 +1234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>40.6</v>
@@ -1276,9 +1281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>29.3</v>
@@ -1323,9 +1328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>38.9</v>
@@ -1370,9 +1375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>37.9</v>
@@ -1417,9 +1422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>59.1</v>
@@ -1464,9 +1469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>41.9</v>
@@ -1511,9 +1516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>39.6</v>
@@ -1558,9 +1563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>32.700000000000003</v>
@@ -1605,9 +1610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>30.5</v>
@@ -1652,9 +1657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>36.9</v>
@@ -1699,9 +1704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>30.1</v>
@@ -1746,9 +1751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>29.5</v>
@@ -1793,9 +1798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>34.200000000000003</v>
@@ -1840,9 +1845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>48.5</v>
@@ -1887,9 +1892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>30.8</v>
@@ -1934,9 +1939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>35.4</v>
@@ -1981,9 +1986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>28.3</v>
@@ -2028,9 +2033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>35.700000000000003</v>
@@ -2075,9 +2080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>35.299999999999997</v>
@@ -2122,9 +2127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>21.3</v>
@@ -2169,9 +2174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>23.6</v>
@@ -2216,9 +2221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>25.8</v>
@@ -2263,9 +2268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2">
         <v>23.4</v>
@@ -2310,9 +2315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>42.9</v>
@@ -2357,9 +2362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>42.6</v>
@@ -2404,9 +2409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>42.5</v>
@@ -2451,9 +2456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -2498,9 +2503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>50.1</v>
@@ -2545,9 +2550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>51.5</v>
@@ -2592,9 +2597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>43.5</v>
@@ -2639,9 +2644,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>45.7</v>
@@ -2686,9 +2691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2">
         <v>42.5</v>
@@ -2733,9 +2738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>44.8</v>
@@ -2780,9 +2785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2">
         <v>44.1</v>
@@ -2827,9 +2832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
         <v>35.4</v>
@@ -2874,9 +2879,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
         <v>49.4</v>
@@ -2921,9 +2926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>39.200000000000003</v>
@@ -2968,9 +2973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2">
         <v>44.5</v>
@@ -3015,9 +3020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>46.3</v>
@@ -3062,9 +3067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2">
         <v>51.6</v>
@@ -3109,9 +3114,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2">
         <v>58.4</v>
@@ -3156,9 +3161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>40.200000000000003</v>
@@ -3203,9 +3208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
         <v>40.200000000000003</v>
@@ -3250,9 +3255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
         <v>43.8</v>
@@ -3297,9 +3302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>55</v>
@@ -3344,9 +3349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2">
         <v>32</v>
@@ -3391,9 +3396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
         <v>28.9</v>
@@ -3438,9 +3443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>48.1</v>
@@ -3485,9 +3490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2">
         <v>53.6</v>
@@ -3532,9 +3537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2">
         <v>44</v>
@@ -3579,9 +3584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2">
         <v>45.7</v>
@@ -3626,9 +3631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2">
         <v>29.1</v>
@@ -3673,9 +3678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2">
         <v>49.4</v>
@@ -3720,9 +3725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2">
         <v>39.4</v>
@@ -3767,9 +3772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2">
         <v>46.7</v>
@@ -3814,9 +3819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2">
         <v>51.1</v>
@@ -3861,9 +3866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2">
         <v>42.9</v>
@@ -3908,9 +3913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2">
         <v>41.2</v>
@@ -3955,9 +3960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2">
         <v>38</v>
@@ -4002,9 +4007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2">
         <v>27.7</v>
@@ -4049,9 +4054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2">
         <v>40.299999999999997</v>
@@ -4096,9 +4101,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2">
         <v>34.700000000000003</v>
@@ -4143,9 +4148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2">
         <v>45.5</v>
@@ -4190,9 +4195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2">
         <v>51.4</v>
@@ -4237,9 +4242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2">
         <v>44.1</v>
@@ -4284,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4301,7 +4306,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -4318,7 +4323,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -4335,7 +4340,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4352,7 +4357,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -4369,7 +4374,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4386,7 +4391,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4403,7 +4408,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4420,7 +4425,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4437,7 +4442,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4454,7 +4459,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4471,7 +4476,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4488,7 +4493,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4505,7 +4510,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4522,7 +4527,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4539,7 +4544,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4556,7 +4561,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4573,7 +4578,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4590,7 +4595,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4607,7 +4612,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4624,7 +4629,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4641,7 +4646,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4658,7 +4663,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4675,7 +4680,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4692,7 +4697,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4709,7 +4714,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4726,7 +4731,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4743,7 +4748,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4760,7 +4765,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4777,7 +4782,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4794,7 +4799,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4811,7 +4816,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4838,34 +4843,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233C3929-9429-4275-AA31-D045521B40BA}">
   <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.68359375" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3">
         <v>410435</v>
@@ -4877,9 +4882,9 @@
         <v>11186</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>1241432</v>
@@ -4891,9 +4896,9 @@
         <v>33915</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3">
         <v>1893159</v>
@@ -4905,9 +4910,9 @@
         <v>34385</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>1799071</v>
@@ -4919,9 +4924,9 @@
         <v>34744</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>3623064</v>
@@ -4933,9 +4938,9 @@
         <v>81959</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3">
         <v>1722694</v>
@@ -4947,9 +4952,9 @@
         <v>39384</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3">
         <v>4432584</v>
@@ -4961,9 +4966,9 @@
         <v>108503</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>1724694</v>
@@ -4975,9 +4980,9 @@
         <v>33775</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <v>2731476</v>
@@ -4989,9 +4994,9 @@
         <v>54648</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>2166945</v>
@@ -5003,9 +5008,9 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>2054841</v>
@@ -5017,9 +5022,9 @@
         <v>80425</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>3489862</v>
@@ -5031,9 +5036,9 @@
         <v>76929</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3">
         <v>27290257</v>
@@ -5045,9 +5050,9 @@
         <v>634156</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>1757843</v>
@@ -5059,9 +5064,9 @@
         <v>29484</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>761595</v>
@@ -5073,9 +5078,9 @@
         <v>15817</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3">
         <v>1174790</v>
@@ -5087,9 +5092,9 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>1092860</v>
@@ -5101,9 +5106,9 @@
         <v>17696</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>670600</v>
@@ -5115,9 +5120,9 @@
         <v>11182</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>1506717</v>
@@ -5129,9 +5134,9 @@
         <v>30949</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>1882421</v>
@@ -5143,9 +5148,9 @@
         <v>45694</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>753271</v>
@@ -5157,9 +5162,9 @@
         <v>15823</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3">
         <v>1116932</v>
@@ -5171,9 +5176,9 @@
         <v>22513</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>634499</v>
@@ -5185,9 +5190,9 @@
         <v>13387</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" s="3">
         <v>1004677</v>
@@ -5199,9 +5204,9 @@
         <v>20066</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3">
         <v>12356205</v>
@@ -5213,9 +5218,9 @@
         <v>247331</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>727300</v>
@@ -5227,9 +5232,9 @@
         <v>11433</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>1426594</v>
@@ -5241,9 +5246,9 @@
         <v>25828</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3">
         <v>459697</v>
@@ -5255,9 +5260,9 @@
         <v>8780</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3">
         <v>2613591</v>
@@ -5269,9 +5274,9 @@
         <v>46041</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3">
         <v>2365034</v>
@@ -5283,9 +5288,9 @@
         <v>61388</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
         <v>2008518</v>
@@ -5297,9 +5302,9 @@
         <v>59626</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3">
         <v>1577216</v>
@@ -5311,9 +5316,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3">
         <v>3377652</v>
@@ -5325,9 +5330,9 @@
         <v>107812</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3">
         <v>3611141</v>
@@ -5339,9 +5344,9 @@
         <v>116028</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3">
         <v>2980171</v>
@@ -5353,9 +5358,9 @@
         <v>81674</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
         <v>2591334</v>
@@ -5367,9 +5372,9 @@
         <v>71334</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3">
         <v>1397192</v>
@@ -5381,9 +5386,9 @@
         <v>49010</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3">
         <v>1668477</v>
@@ -5395,9 +5400,9 @@
         <v>48998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3">
         <v>2896063</v>
@@ -5409,9 +5414,9 @@
         <v>82397</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3">
         <v>1708996</v>
@@ -5423,9 +5428,9 @@
         <v>54172</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3">
         <v>1430600</v>
@@ -5437,9 +5442,9 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3">
         <v>1946092</v>
@@ -5451,9 +5456,9 @@
         <v>65837</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3">
         <v>1568366</v>
@@ -5465,9 +5470,9 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3">
         <v>423220</v>
@@ -5479,9 +5484,9 @@
         <v>13833</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B46" s="3">
         <v>2516558</v>
@@ -5493,9 +5498,9 @@
         <v>77101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3">
         <v>1843892</v>
@@ -5507,9 +5512,9 @@
         <v>60389</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B48" s="3">
         <v>3504834</v>
@@ -5521,9 +5526,9 @@
         <v>135486</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3">
         <v>3362140</v>
@@ -5535,9 +5540,9 @@
         <v>72498</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3">
         <v>1349225</v>
@@ -5549,9 +5554,9 @@
         <v>35967</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3">
         <v>2448043</v>
@@ -5563,9 +5568,9 @@
         <v>63238</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3">
         <v>3466475</v>
@@ -5577,9 +5582,9 @@
         <v>125029</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3">
         <v>1263576</v>
@@ -5591,9 +5596,9 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3">
         <v>1527500</v>
@@ -5605,9 +5610,9 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B55" s="3">
         <v>3102911</v>
@@ -5619,9 +5624,9 @@
         <v>96992</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3">
         <v>1848097</v>
@@ -5633,9 +5638,9 @@
         <v>61011</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="3">
         <v>1940347</v>
@@ -5647,9 +5652,9 @@
         <v>59447</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
         <v>1799679</v>
@@ -5661,9 +5666,9 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" s="3">
         <v>76439</v>
@@ -5675,9 +5680,9 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3">
         <v>3514997</v>
@@ -5689,9 +5694,9 @@
         <v>108501</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
         <v>2230272</v>
@@ -5703,9 +5708,9 @@
         <v>63150</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B62" s="3">
         <v>1830741</v>
@@ -5717,9 +5722,9 @@
         <v>56957</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B63" s="3">
         <v>2838117</v>
@@ -5731,9 +5736,9 @@
         <v>79201</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" s="3">
         <v>3160667</v>
@@ -5745,9 +5750,9 @@
         <v>76873</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B65" s="3">
         <v>2819741</v>
@@ -5759,9 +5764,9 @@
         <v>65419</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" s="3">
         <v>102036</v>
@@ -5773,9 +5778,9 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3">
         <v>519140</v>
@@ -5787,9 +5792,9 @@
         <v>10469</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="3">
         <v>2757746</v>
@@ -5801,9 +5806,9 @@
         <v>60656</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3">
         <v>1353088</v>
@@ -5815,9 +5820,9 @@
         <v>34082</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B70" s="3">
         <v>82726333</v>
@@ -5829,9 +5834,9 @@
         <v>2416554</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B71" s="3">
         <v>3111221</v>
@@ -5843,9 +5848,9 @@
         <v>104193</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B72" s="3">
         <v>128097607</v>
@@ -5857,9 +5862,9 @@
         <v>3448269</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B73" s="3">
         <v>763706</v>
@@ -5871,9 +5876,9 @@
         <v>16422</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B74" s="3">
         <v>334829</v>
@@ -5885,9 +5890,9 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" s="3">
         <v>159434</v>
@@ -5899,9 +5904,9 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B76" s="3">
         <v>673224</v>
@@ -5913,9 +5918,9 @@
         <v>12228</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B77" s="3">
         <v>1147226</v>
@@ -5927,9 +5932,9 @@
         <v>23174</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3">
         <v>345102</v>
@@ -5941,9 +5946,9 @@
         <v>6837</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B79" s="3">
         <v>2519883</v>
@@ -5955,9 +5960,9 @@
         <v>88878</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B80" s="3">
         <v>1092282</v>
@@ -5969,9 +5974,9 @@
         <v>17166</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B81" s="3">
         <v>1175415</v>
@@ -5983,9 +5988,9 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B82" s="3">
         <v>1104465</v>
@@ -5997,9 +6002,9 @@
         <v>28888</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B83" s="3">
         <v>1247473</v>
@@ -6011,9 +6016,9 @@
         <v>22976</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B84" s="3">
         <v>120129</v>
@@ -6025,9 +6030,9 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B85" s="3">
         <v>869800</v>
@@ -6039,9 +6044,9 @@
         <v>23862</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B86" s="3">
         <v>11552968</v>
@@ -6053,9 +6058,9 @@
         <v>293645</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B87" s="3">
         <v>157272</v>
@@ -6067,9 +6072,9 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B88" s="3">
         <v>817975</v>
@@ -6081,9 +6086,9 @@
         <v>33584</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89" s="3">
         <v>843151</v>
@@ -6095,9 +6100,9 @@
         <v>21179</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B90" s="3">
         <v>663058</v>
@@ -6109,9 +6114,9 @@
         <v>22017</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B91" s="3">
         <v>530805</v>
@@ -6123,9 +6128,9 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B92" s="3">
         <v>1798814</v>
@@ -6137,9 +6142,9 @@
         <v>70483</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B93" s="3">
         <v>3100940</v>
@@ -6151,9 +6156,9 @@
         <v>103839</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B94" s="3">
         <v>269305</v>
@@ -6165,9 +6170,9 @@
         <v>7595</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B95" s="3">
         <v>6209</v>
@@ -6179,9 +6184,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B96" s="3">
         <v>8187529</v>
@@ -6193,9 +6198,9 @@
         <v>273897</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B97" s="3">
         <v>1121002</v>
@@ -6207,9 +6212,9 @@
         <v>25326</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B98" s="3">
         <v>450989</v>
@@ -6221,23 +6226,23 @@
         <v>6531</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B99" s="3">
         <v>879745</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B100" s="3">
         <v>771016</v>
@@ -6249,9 +6254,9 @@
         <v>10716</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B101" s="3">
         <v>1117365</v>
@@ -6263,9 +6268,9 @@
         <v>19360</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B102" s="3">
         <v>1692602</v>
@@ -6277,9 +6282,9 @@
         <v>56176</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B103" s="3">
         <v>614171</v>
@@ -6291,9 +6296,9 @@
         <v>16508</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3">
         <v>750228</v>
@@ -6305,9 +6310,9 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B105" s="3">
         <v>1950334</v>
@@ -6319,9 +6324,9 @@
         <v>31777</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B106" s="3">
         <v>9347452</v>
@@ -6333,9 +6338,9 @@
         <v>180114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B107" s="3">
         <v>29087949</v>
@@ -6347,9 +6352,9 @@
         <v>747656</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B108" s="3">
         <v>157185556</v>
@@ -6361,632 +6366,632 @@
         <v>4195925</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8F7BE-212E-4A3A-8D8E-E6D3B7C5E4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06058FBC-AE5B-41FB-AF77-E85FFFBFB927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62385" yWindow="6030" windowWidth="36105" windowHeight="16110" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="179">
   <si>
     <t>губ</t>
   </si>
@@ -532,6 +527,48 @@
   </si>
   <si>
     <t>с 1906</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>2Б869</t>
+  </si>
+  <si>
+    <t>1425;</t>
   </si>
 </sst>
 </file>
@@ -578,11 +615,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,16 +939,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2D3C9-4506-4EBA-B5D1-1E4158C69B96}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83984375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1281,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1563,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1751,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1892,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2033,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2080,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2127,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2221,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2268,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2315,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2409,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2456,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2503,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2597,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2691,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2738,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2832,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2879,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2926,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3020,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3067,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3114,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3161,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3208,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3255,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3302,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -3349,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3396,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -3443,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -3490,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3537,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -3584,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3631,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3678,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -3725,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -3772,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -3819,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -3866,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -3913,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -3960,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -4007,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -4054,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -4101,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -4148,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4195,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -4242,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -4289,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4306,7 +4346,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -4323,7 +4363,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -4340,7 +4380,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -4357,7 +4397,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -4374,7 +4414,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4391,7 +4431,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4408,7 +4448,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4425,7 +4465,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4442,7 +4482,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4459,7 +4499,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4476,7 +4516,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4493,7 +4533,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4510,7 +4550,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4527,7 +4567,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4544,7 +4584,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4561,7 +4601,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4578,7 +4618,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4595,7 +4635,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4612,7 +4652,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4629,7 +4669,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4646,7 +4686,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4663,7 +4703,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4680,7 +4720,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4697,7 +4737,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4714,7 +4754,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4731,7 +4771,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4748,7 +4788,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4765,7 +4805,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4782,7 +4822,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4799,7 +4839,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4816,7 +4856,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4841,20 +4881,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233C3929-9429-4275-AA31-D045521B40BA}">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.68359375" customWidth="1"/>
-    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4867,8 +4913,44 @@
       <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4881,8 +4963,44 @@
       <c r="D2" s="3">
         <v>11186</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="4">
+        <v>16694</v>
+      </c>
+      <c r="G2" s="4">
+        <v>17942</v>
+      </c>
+      <c r="H2" s="4">
+        <v>830</v>
+      </c>
+      <c r="I2" s="4">
+        <v>804</v>
+      </c>
+      <c r="J2" s="4">
+        <v>887</v>
+      </c>
+      <c r="K2" s="4">
+        <v>659</v>
+      </c>
+      <c r="L2" s="4">
+        <v>178080</v>
+      </c>
+      <c r="M2" s="4">
+        <v>197719</v>
+      </c>
+      <c r="N2" s="4">
+        <v>7996</v>
+      </c>
+      <c r="O2" s="4">
+        <v>7690</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5063</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4895,8 +5013,44 @@
       <c r="D3" s="3">
         <v>33915</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="4">
+        <v>85781</v>
+      </c>
+      <c r="G3" s="4">
+        <v>83523</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3623</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3499</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4091</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2993</v>
+      </c>
+      <c r="L3" s="4">
+        <v>553876</v>
+      </c>
+      <c r="M3" s="4">
+        <v>518252</v>
+      </c>
+      <c r="N3" s="4">
+        <v>21342</v>
+      </c>
+      <c r="O3" s="4">
+        <v>19333</v>
+      </c>
+      <c r="P3" s="4">
+        <v>14403</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4909,8 +5063,44 @@
       <c r="D4" s="3">
         <v>34385</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="4">
+        <v>112228</v>
+      </c>
+      <c r="G4" s="4">
+        <v>107277</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4094</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3422</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2866</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2541</v>
+      </c>
+      <c r="L4" s="4">
+        <v>828411</v>
+      </c>
+      <c r="M4" s="4">
+        <v>845243</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" s="4">
+        <v>24578</v>
+      </c>
+      <c r="P4" s="4">
+        <v>15055</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>13873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -4923,8 +5113,44 @@
       <c r="D5" s="3">
         <v>34744</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="4">
+        <v>127714</v>
+      </c>
+      <c r="G5" s="4">
+        <v>121733</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4187</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3645</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2693</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2234</v>
+      </c>
+      <c r="L5" s="4">
+        <v>767350</v>
+      </c>
+      <c r="M5" s="4">
+        <v>782274</v>
+      </c>
+      <c r="N5" s="4">
+        <v>27925</v>
+      </c>
+      <c r="O5" s="4">
+        <v>26285</v>
+      </c>
+      <c r="P5" s="4">
+        <v>15671</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>14146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4937,8 +5163,44 @@
       <c r="D6" s="3">
         <v>81959</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="4">
+        <v>178186</v>
+      </c>
+      <c r="G6" s="4">
+        <v>164351</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4721</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3834</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2755</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2389</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1646550</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1633977</v>
+      </c>
+      <c r="N6" s="4">
+        <v>71844</v>
+      </c>
+      <c r="O6" s="4">
+        <v>66733</v>
+      </c>
+      <c r="P6" s="4">
+        <v>40228</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>36587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4951,8 +5213,44 @@
       <c r="D7" s="3">
         <v>39384</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="4">
+        <v>122389</v>
+      </c>
+      <c r="G7" s="4">
+        <v>122940</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3576</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2652</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2245</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1785</v>
+      </c>
+      <c r="L7" s="4">
+        <v>748565</v>
+      </c>
+      <c r="M7" s="4">
+        <v>728800</v>
+      </c>
+      <c r="N7" s="4">
+        <v>29347</v>
+      </c>
+      <c r="O7" s="4">
+        <v>27271</v>
+      </c>
+      <c r="P7" s="4">
+        <v>18160</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>17194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4965,8 +5263,44 @@
       <c r="D8" s="3">
         <v>108503</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="4">
+        <v>357552</v>
+      </c>
+      <c r="G8" s="4">
+        <v>372167</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11384</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10363</v>
+      </c>
+      <c r="J8" s="4">
+        <v>9032</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6887</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1709670</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1993195</v>
+      </c>
+      <c r="N8" s="4">
+        <v>81608</v>
+      </c>
+      <c r="O8" s="4">
+        <v>76651</v>
+      </c>
+      <c r="P8" s="4">
+        <v>48785</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4979,8 +5313,44 @@
       <c r="D9" s="3">
         <v>33775</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="4">
+        <v>84647</v>
+      </c>
+      <c r="G9" s="4">
+        <v>71000</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2093</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1858</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1711</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1370</v>
+      </c>
+      <c r="L9" s="4">
+        <v>761765</v>
+      </c>
+      <c r="M9" s="4">
+        <v>807282</v>
+      </c>
+      <c r="N9" s="4">
+        <v>23841</v>
+      </c>
+      <c r="O9" s="4">
+        <v>22758</v>
+      </c>
+      <c r="P9" s="4">
+        <v>15735</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>14959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4993,8 +5363,44 @@
       <c r="D10" s="3">
         <v>54648</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="4">
+        <v>130795</v>
+      </c>
+      <c r="G10" s="4">
+        <v>127508</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4748</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4135</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2890</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2386</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1236578</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1236595</v>
+      </c>
+      <c r="N10" s="4">
+        <v>50428</v>
+      </c>
+      <c r="O10" s="4">
+        <v>46893</v>
+      </c>
+      <c r="P10" s="4">
+        <v>25788</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>23584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5007,8 +5413,44 @@
       <c r="D11" s="3">
         <v>44347</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="4">
+        <v>111079</v>
+      </c>
+      <c r="G11" s="4">
+        <v>111677</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2888</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2471</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1668</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1434</v>
+      </c>
+      <c r="L11" s="4">
+        <v>970085</v>
+      </c>
+      <c r="M11" s="4">
+        <v>974104</v>
+      </c>
+      <c r="N11" s="4">
+        <v>39568</v>
+      </c>
+      <c r="O11" s="4">
+        <v>37228</v>
+      </c>
+      <c r="P11" s="4">
+        <v>21520</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>19725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5021,8 +5463,44 @@
       <c r="D12" s="3">
         <v>80425</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="4">
+        <v>114427</v>
+      </c>
+      <c r="G12" s="4">
+        <v>109064</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6032</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5904</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5300</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4385</v>
+      </c>
+      <c r="L12" s="4">
+        <v>916420</v>
+      </c>
+      <c r="M12" s="4">
+        <v>914930</v>
+      </c>
+      <c r="N12" s="4">
+        <v>55893</v>
+      </c>
+      <c r="O12" s="4">
+        <v>53700</v>
+      </c>
+      <c r="P12" s="4">
+        <v>36678</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>34062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5035,8 +5513,44 @@
       <c r="D13" s="3">
         <v>76929</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="4">
+        <v>125229</v>
+      </c>
+      <c r="G13" s="4">
+        <v>128344</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3695</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3248</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2309</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1747</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1605498</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1630791</v>
+      </c>
+      <c r="N13" s="4">
+        <v>72032</v>
+      </c>
+      <c r="O13" s="4">
+        <v>67398</v>
+      </c>
+      <c r="P13" s="4">
+        <v>38852</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>34021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -5049,8 +5563,44 @@
       <c r="D14" s="3">
         <v>634156</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="4">
+        <v>1566721</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1537526</v>
+      </c>
+      <c r="H14" s="4">
+        <v>51871</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45835</v>
+      </c>
+      <c r="J14" s="4">
+        <v>38447</v>
+      </c>
+      <c r="K14" s="4">
+        <v>80610</v>
+      </c>
+      <c r="L14" s="4">
+        <v>11922848</v>
+      </c>
+      <c r="M14" s="4">
+        <v>12263162</v>
+      </c>
+      <c r="N14" s="4">
+        <v>507693</v>
+      </c>
+      <c r="O14" s="4">
+        <v>476518</v>
+      </c>
+      <c r="P14" s="4">
+        <v>295938</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>269155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5063,8 +5613,44 @@
       <c r="D15" s="3">
         <v>29484</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="4">
+        <v>68764</v>
+      </c>
+      <c r="G15" s="4">
+        <v>67184</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2983</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2715</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1615</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1468</v>
+      </c>
+      <c r="L15" s="4">
+        <v>801848</v>
+      </c>
+      <c r="M15" s="4">
+        <v>820047</v>
+      </c>
+      <c r="N15" s="4">
+        <v>26382</v>
+      </c>
+      <c r="O15" s="4">
+        <v>25481</v>
+      </c>
+      <c r="P15" s="4">
+        <v>14012</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>12389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5077,8 +5663,44 @@
       <c r="D16" s="3">
         <v>15817</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="4">
+        <v>368376</v>
+      </c>
+      <c r="G16" s="4">
+        <v>393219</v>
+      </c>
+      <c r="H16" s="4">
+        <v>12412</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10839</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8297</v>
+      </c>
+      <c r="K16" s="4">
+        <v>7520</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -5091,8 +5713,44 @@
       <c r="D17" s="3">
         <v>24720</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="4">
+        <v>55420</v>
+      </c>
+      <c r="G17" s="4">
+        <v>54812</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1400</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1310</v>
+      </c>
+      <c r="J17" s="4">
+        <v>844</v>
+      </c>
+      <c r="K17" s="4">
+        <v>804</v>
+      </c>
+      <c r="L17" s="4">
+        <v>522690</v>
+      </c>
+      <c r="M17" s="4">
+        <v>541868</v>
+      </c>
+      <c r="N17" s="4">
+        <v>19563</v>
+      </c>
+      <c r="O17" s="4">
+        <v>21073</v>
+      </c>
+      <c r="P17" s="4">
+        <v>11385</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>11687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5105,8 +5763,44 @@
       <c r="D18" s="3">
         <v>17696</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="4">
+        <v>25321</v>
+      </c>
+      <c r="G18" s="4">
+        <v>27256</v>
+      </c>
+      <c r="H18" s="4">
+        <v>762</v>
+      </c>
+      <c r="I18" s="4">
+        <v>728</v>
+      </c>
+      <c r="J18" s="4">
+        <v>597</v>
+      </c>
+      <c r="K18" s="4">
+        <v>475</v>
+      </c>
+      <c r="L18" s="4">
+        <v>520122</v>
+      </c>
+      <c r="M18" s="4">
+        <v>520161</v>
+      </c>
+      <c r="N18" s="4">
+        <v>16268</v>
+      </c>
+      <c r="O18" s="4">
+        <v>15109</v>
+      </c>
+      <c r="P18" s="4">
+        <v>8438</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5119,8 +5813,44 @@
       <c r="D19" s="3">
         <v>11182</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="4">
+        <v>47400</v>
+      </c>
+      <c r="G19" s="4">
+        <v>36600</v>
+      </c>
+      <c r="H19" s="4">
+        <v>965</v>
+      </c>
+      <c r="I19" s="4">
+        <v>706</v>
+      </c>
+      <c r="J19" s="4">
+        <v>690</v>
+      </c>
+      <c r="K19" s="4">
+        <v>625</v>
+      </c>
+      <c r="L19" s="4">
+        <v>300900</v>
+      </c>
+      <c r="M19" s="4">
+        <v>285700</v>
+      </c>
+      <c r="N19" s="4">
+        <v>9386</v>
+      </c>
+      <c r="O19" s="4">
+        <v>8772</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5118</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5133,8 +5863,44 @@
       <c r="D20" s="3">
         <v>30949</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="4">
+        <v>86413</v>
+      </c>
+      <c r="G20" s="4">
+        <v>82483</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2022</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1773</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1451</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1387</v>
+      </c>
+      <c r="L20" s="4">
+        <v>668029</v>
+      </c>
+      <c r="M20" s="4">
+        <v>669792</v>
+      </c>
+      <c r="N20" s="4">
+        <v>24478</v>
+      </c>
+      <c r="O20" s="4">
+        <v>23183</v>
+      </c>
+      <c r="P20" s="4">
+        <v>14292</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>13819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5147,8 +5913,44 @@
       <c r="D21" s="3">
         <v>45694</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="4">
+        <v>290076</v>
+      </c>
+      <c r="G21" s="4">
+        <v>312853</v>
+      </c>
+      <c r="H21" s="4">
+        <v>17578</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15573</v>
+      </c>
+      <c r="J21" s="4">
+        <v>7709</v>
+      </c>
+      <c r="K21" s="4">
+        <v>7559</v>
+      </c>
+      <c r="L21" s="4">
+        <v>646107</v>
+      </c>
+      <c r="M21" s="4">
+        <v>633385</v>
+      </c>
+      <c r="N21" s="4">
+        <v>29948</v>
+      </c>
+      <c r="O21" s="4">
+        <v>28182</v>
+      </c>
+      <c r="P21" s="4">
+        <v>14593</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>15833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5161,8 +5963,44 @@
       <c r="D22" s="3">
         <v>15823</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="4">
+        <v>42583</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45958</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1067</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1073</v>
+      </c>
+      <c r="J22" s="4">
+        <v>604</v>
+      </c>
+      <c r="K22" s="4">
+        <v>611</v>
+      </c>
+      <c r="L22" s="4">
+        <v>330600</v>
+      </c>
+      <c r="M22" s="4">
+        <v>334130</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10448</v>
+      </c>
+      <c r="O22" s="4">
+        <v>10643</v>
+      </c>
+      <c r="P22" s="4">
+        <v>7305</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -5175,8 +6013,44 @@
       <c r="D23" s="3">
         <v>22513</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="4">
+        <v>42418</v>
+      </c>
+      <c r="G23" s="4">
+        <v>42774</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2128</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2091</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1781</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1572</v>
+      </c>
+      <c r="L23" s="4">
+        <v>517646</v>
+      </c>
+      <c r="M23" s="4">
+        <v>514094</v>
+      </c>
+      <c r="N23" s="4">
+        <v>17886</v>
+      </c>
+      <c r="O23" s="4">
+        <v>17401</v>
+      </c>
+      <c r="P23" s="4">
+        <v>9993</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>9167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5189,8 +6063,44 @@
       <c r="D24" s="3">
         <v>13387</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="4">
+        <v>31749</v>
+      </c>
+      <c r="G24" s="4">
+        <v>33747</v>
+      </c>
+      <c r="H24" s="4">
+        <v>603</v>
+      </c>
+      <c r="I24" s="4">
+        <v>544</v>
+      </c>
+      <c r="J24" s="4">
+        <v>434</v>
+      </c>
+      <c r="K24" s="4">
+        <v>426</v>
+      </c>
+      <c r="L24" s="4">
+        <v>274123</v>
+      </c>
+      <c r="M24" s="4">
+        <v>294880</v>
+      </c>
+      <c r="N24" s="4">
+        <v>8362</v>
+      </c>
+      <c r="O24" s="4">
+        <v>8451</v>
+      </c>
+      <c r="P24" s="4">
+        <v>6173</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -5203,8 +6113,44 @@
       <c r="D25" s="3">
         <v>20066</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="4">
+        <v>52555</v>
+      </c>
+      <c r="G25" s="4">
+        <v>48753</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1476</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1303</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1009</v>
+      </c>
+      <c r="K25" s="4">
+        <v>821</v>
+      </c>
+      <c r="L25" s="4">
+        <v>451569</v>
+      </c>
+      <c r="M25" s="4">
+        <v>451800</v>
+      </c>
+      <c r="N25" s="4">
+        <v>16188</v>
+      </c>
+      <c r="O25" s="4">
+        <v>16881</v>
+      </c>
+      <c r="P25" s="4">
+        <v>9098</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -5217,8 +6163,44 @@
       <c r="D26" s="3">
         <v>247331</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="4">
+        <v>1111075</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1145639</v>
+      </c>
+      <c r="H26" s="4">
+        <v>43396</v>
+      </c>
+      <c r="I26" s="4">
+        <v>38655</v>
+      </c>
+      <c r="J26" s="4">
+        <v>24981</v>
+      </c>
+      <c r="K26" s="4">
+        <v>23268</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5033634</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5065857</v>
+      </c>
+      <c r="N26" s="4">
+        <v>178909</v>
+      </c>
+      <c r="O26" s="4">
+        <v>175176</v>
+      </c>
+      <c r="P26" s="4">
+        <v>100407</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>98675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5231,8 +6213,44 @@
       <c r="D27" s="3">
         <v>11433</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="4">
+        <v>89200</v>
+      </c>
+      <c r="G27" s="4">
+        <v>86500</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2338</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2263</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1667</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1403</v>
+      </c>
+      <c r="L27" s="4">
+        <v>264000</v>
+      </c>
+      <c r="M27" s="4">
+        <v>287600</v>
+      </c>
+      <c r="N27" s="4">
+        <v>5611</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5297</v>
+      </c>
+      <c r="P27" s="4">
+        <v>4239</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5245,8 +6263,44 @@
       <c r="D28" s="3">
         <v>25828</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="4">
+        <v>189073</v>
+      </c>
+      <c r="G28" s="4">
+        <v>192780</v>
+      </c>
+      <c r="H28" s="4">
+        <v>6443</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5993</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5502</v>
+      </c>
+      <c r="K28" s="4">
+        <v>4567</v>
+      </c>
+      <c r="L28" s="4">
+        <v>504389</v>
+      </c>
+      <c r="M28" s="4">
+        <v>540352</v>
+      </c>
+      <c r="N28" s="4">
+        <v>11008</v>
+      </c>
+      <c r="O28" s="4">
+        <v>10299</v>
+      </c>
+      <c r="P28" s="4">
+        <v>8140</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>7619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -5259,8 +6313,44 @@
       <c r="D29" s="3">
         <v>8780</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="4">
+        <v>41927</v>
+      </c>
+      <c r="G29" s="4">
+        <v>41222</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1360</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1258</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1124</v>
+      </c>
+      <c r="K29" s="4">
+        <v>977</v>
+      </c>
+      <c r="L29" s="4">
+        <v>184110</v>
+      </c>
+      <c r="M29" s="4">
+        <v>192438</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4736</v>
+      </c>
+      <c r="O29" s="4">
+        <v>4507</v>
+      </c>
+      <c r="P29" s="4">
+        <v>3444</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -5273,8 +6363,44 @@
       <c r="D30" s="3">
         <v>46041</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="4">
+        <v>320200</v>
+      </c>
+      <c r="G30" s="4">
+        <v>320502</v>
+      </c>
+      <c r="H30" s="4">
+        <v>10141</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9514</v>
+      </c>
+      <c r="J30" s="4">
+        <v>8293</v>
+      </c>
+      <c r="K30" s="4">
+        <v>6947</v>
+      </c>
+      <c r="L30" s="4">
+        <v>952499</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1020390</v>
+      </c>
+      <c r="N30" s="4">
+        <v>21355</v>
+      </c>
+      <c r="O30" s="4">
+        <v>20103</v>
+      </c>
+      <c r="P30" s="4">
+        <v>15823</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>14978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -5287,8 +6413,44 @@
       <c r="D31" s="3">
         <v>61388</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="4">
+        <v>140783</v>
+      </c>
+      <c r="G31" s="4">
+        <v>132650</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4791</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4356</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3650</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2982</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1067562</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1024039</v>
+      </c>
+      <c r="N31" s="4">
+        <v>47279</v>
+      </c>
+      <c r="O31" s="4">
+        <v>45099</v>
+      </c>
+      <c r="P31" s="4">
+        <v>28618</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>26138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5301,8 +6463,44 @@
       <c r="D32" s="3">
         <v>59626</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="4">
+        <v>133705</v>
+      </c>
+      <c r="G32" s="4">
+        <v>122926</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5594</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5122</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4628</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3726</v>
+      </c>
+      <c r="L32" s="4">
+        <v>854756</v>
+      </c>
+      <c r="M32" s="4">
+        <v>897131</v>
+      </c>
+      <c r="N32" s="4">
+        <v>38471</v>
+      </c>
+      <c r="O32" s="4">
+        <v>36376</v>
+      </c>
+      <c r="P32" s="4">
+        <v>26507</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>24765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -5315,8 +6513,44 @@
       <c r="D33" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="4">
+        <v>33903</v>
+      </c>
+      <c r="G33" s="4">
+        <v>33539</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1275</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1267</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1136</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>720960</v>
+      </c>
+      <c r="M33" s="4">
+        <v>788814</v>
+      </c>
+      <c r="N33" s="4">
+        <v>32968</v>
+      </c>
+      <c r="O33" s="4">
+        <v>31545</v>
+      </c>
+      <c r="P33" s="4">
+        <v>25026</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>22838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -5329,8 +6563,44 @@
       <c r="D34" s="3">
         <v>107812</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="4">
+        <v>73516</v>
+      </c>
+      <c r="G34" s="4">
+        <v>67742</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2499</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2441</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2285</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1800</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1630916</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1605478</v>
+      </c>
+      <c r="N34" s="4">
+        <v>84354</v>
+      </c>
+      <c r="O34" s="4">
+        <v>79785</v>
+      </c>
+      <c r="P34" s="4">
+        <v>53526</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>50201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -5343,8 +6613,44 @@
       <c r="D35" s="3">
         <v>116028</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="4">
+        <v>60954</v>
+      </c>
+      <c r="G35" s="4">
+        <v>57752</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1985</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1742</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1433</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1709323</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1783112</v>
+      </c>
+      <c r="N35" s="4">
+        <v>90413</v>
+      </c>
+      <c r="O35" s="4">
+        <v>86584</v>
+      </c>
+      <c r="P35" s="4">
+        <v>57955</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>54898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -5357,8 +6663,44 @@
       <c r="D36" s="3">
         <v>81674</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" s="4">
+        <v>216647</v>
+      </c>
+      <c r="G36" s="4">
+        <v>193286</v>
+      </c>
+      <c r="H36" s="4">
+        <v>9288</v>
+      </c>
+      <c r="I36" s="4">
+        <v>7951</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5848</v>
+      </c>
+      <c r="K36" s="4">
+        <v>4390</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1354668</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1215570</v>
+      </c>
+      <c r="N36" s="4">
+        <v>69086</v>
+      </c>
+      <c r="O36" s="4">
+        <v>67007</v>
+      </c>
+      <c r="P36" s="4">
+        <v>37996</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>33440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -5371,8 +6713,44 @@
       <c r="D37" s="3">
         <v>71334</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="4">
+        <v>117926</v>
+      </c>
+      <c r="G37" s="4">
+        <v>117726</v>
+      </c>
+      <c r="H37" s="4">
+        <v>4238</v>
+      </c>
+      <c r="I37" s="4">
+        <v>4273</v>
+      </c>
+      <c r="J37" s="4">
+        <v>3264</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3154</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1178787</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1176895</v>
+      </c>
+      <c r="N37" s="4">
+        <v>53413</v>
+      </c>
+      <c r="O37" s="4">
+        <v>50788</v>
+      </c>
+      <c r="P37" s="4">
+        <v>32719</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>32197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -5385,8 +6763,44 @@
       <c r="D38" s="3">
         <v>49010</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="4">
+        <v>45110</v>
+      </c>
+      <c r="G38" s="4">
+        <v>46461</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1716</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1532</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1721</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1252</v>
+      </c>
+      <c r="L38" s="4">
+        <v>608021</v>
+      </c>
+      <c r="M38" s="4">
+        <v>697600</v>
+      </c>
+      <c r="N38" s="4">
+        <v>30991</v>
+      </c>
+      <c r="O38" s="4">
+        <v>29581</v>
+      </c>
+      <c r="P38" s="4">
+        <v>23733</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>22304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5399,8 +6813,44 @@
       <c r="D39" s="3">
         <v>48998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="4">
+        <v>45940</v>
+      </c>
+      <c r="G39" s="4">
+        <v>48126</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1906</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1955</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1718</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1533</v>
+      </c>
+      <c r="L39" s="4">
+        <v>735768</v>
+      </c>
+      <c r="M39" s="4">
+        <v>838643</v>
+      </c>
+      <c r="N39" s="4">
+        <v>34007</v>
+      </c>
+      <c r="O39" s="4">
+        <v>33055</v>
+      </c>
+      <c r="P39" s="4">
+        <v>23461</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>22286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -5413,8 +6863,44 @@
       <c r="D40" s="3">
         <v>82397</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="4">
+        <v>120593</v>
+      </c>
+      <c r="G40" s="4">
+        <v>122166</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3944</v>
+      </c>
+      <c r="I40" s="4">
+        <v>3867</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3146</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2659</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1321360</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1331944</v>
+      </c>
+      <c r="N40" s="4">
+        <v>62943</v>
+      </c>
+      <c r="O40" s="4">
+        <v>58967</v>
+      </c>
+      <c r="P40" s="4">
+        <v>39748</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>36844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -5427,8 +6913,44 @@
       <c r="D41" s="3">
         <v>54172</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="4">
+        <v>62185</v>
+      </c>
+      <c r="G41" s="4">
+        <v>55284</v>
+      </c>
+      <c r="H41" s="4">
+        <v>3112</v>
+      </c>
+      <c r="I41" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2024</v>
+      </c>
+      <c r="L41" s="4">
+        <v>708570</v>
+      </c>
+      <c r="M41" s="4">
+        <v>882957</v>
+      </c>
+      <c r="N41" s="4">
+        <v>35420</v>
+      </c>
+      <c r="O41" s="4">
+        <v>33872</v>
+      </c>
+      <c r="P41" s="4">
+        <v>26141</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>23611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -5441,8 +6963,44 @@
       <c r="D42" s="3">
         <v>39622</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="4">
+        <v>793616</v>
+      </c>
+      <c r="G42" s="4">
+        <v>636984</v>
+      </c>
+      <c r="H42" s="4">
+        <v>25758</v>
+      </c>
+      <c r="I42" s="4">
+        <v>24904</v>
+      </c>
+      <c r="J42" s="4">
+        <v>21838</v>
+      </c>
+      <c r="K42" s="4">
+        <v>17784</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -5455,8 +7013,44 @@
       <c r="D43" s="3">
         <v>65837</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="4">
+        <v>68852</v>
+      </c>
+      <c r="G43" s="4">
+        <v>71727</v>
+      </c>
+      <c r="H43" s="4">
+        <v>3403</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3080</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2700</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2131</v>
+      </c>
+      <c r="L43" s="4">
+        <v>870808</v>
+      </c>
+      <c r="M43" s="4">
+        <v>934705</v>
+      </c>
+      <c r="N43" s="4">
+        <v>46063</v>
+      </c>
+      <c r="O43" s="4">
+        <v>43571</v>
+      </c>
+      <c r="P43" s="4">
+        <v>31615</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>29391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -5469,8 +7063,44 @@
       <c r="D44" s="3">
         <v>44952</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="4">
+        <v>47519</v>
+      </c>
+      <c r="G44" s="4">
+        <v>48799</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1793</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1707</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1821</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1452</v>
+      </c>
+      <c r="L44" s="4">
+        <v>702733</v>
+      </c>
+      <c r="M44" s="4">
+        <v>769315</v>
+      </c>
+      <c r="N44" s="4">
+        <v>29719</v>
+      </c>
+      <c r="O44" s="4">
+        <v>28219</v>
+      </c>
+      <c r="P44" s="4">
+        <v>21756</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>19323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -5483,8 +7113,44 @@
       <c r="D45" s="3">
         <v>13833</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="4">
+        <v>14923</v>
+      </c>
+      <c r="G45" s="4">
+        <v>15581</v>
+      </c>
+      <c r="H45" s="4">
+        <v>645</v>
+      </c>
+      <c r="I45" s="4">
+        <v>632</v>
+      </c>
+      <c r="J45" s="4">
+        <v>593</v>
+      </c>
+      <c r="K45" s="4">
+        <v>462</v>
+      </c>
+      <c r="L45" s="4">
+        <v>191912</v>
+      </c>
+      <c r="M45" s="4">
+        <v>200804</v>
+      </c>
+      <c r="N45" s="4">
+        <v>8987</v>
+      </c>
+      <c r="O45" s="4">
+        <v>8586</v>
+      </c>
+      <c r="P45" s="4">
+        <v>6659</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -5497,8 +7163,44 @@
       <c r="D46" s="3">
         <v>77101</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="4">
+        <v>147869</v>
+      </c>
+      <c r="G46" s="4">
+        <v>131745</v>
+      </c>
+      <c r="H46" s="4">
+        <v>4998</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4682</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4184</v>
+      </c>
+      <c r="K46" s="4">
+        <v>3759</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1120682</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1116262</v>
+      </c>
+      <c r="N46" s="4">
+        <v>54162</v>
+      </c>
+      <c r="O46" s="4">
+        <v>52594</v>
+      </c>
+      <c r="P46" s="4">
+        <v>35123</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>34038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -5511,8 +7213,44 @@
       <c r="D47" s="3">
         <v>60389</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="4">
+        <v>75314</v>
+      </c>
+      <c r="G47" s="4">
+        <v>74312</v>
+      </c>
+      <c r="H47" s="4">
+        <v>3870</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3616</v>
+      </c>
+      <c r="J47" s="4">
+        <v>3012</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2501</v>
+      </c>
+      <c r="L47" s="4">
+        <v>833189</v>
+      </c>
+      <c r="M47" s="4">
+        <v>861077</v>
+      </c>
+      <c r="N47" s="4">
+        <v>45208</v>
+      </c>
+      <c r="O47" s="4">
+        <v>42491</v>
+      </c>
+      <c r="P47" s="4">
+        <v>28491</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>26385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -5525,8 +7263,44 @@
       <c r="D48" s="3">
         <v>135486</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="4">
+        <v>101776</v>
+      </c>
+      <c r="G48" s="4">
+        <v>98655</v>
+      </c>
+      <c r="H48" s="4">
+        <v>4538</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4453</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4137</v>
+      </c>
+      <c r="K48" s="4">
+        <v>3446</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1587344</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1717059</v>
+      </c>
+      <c r="N48" s="4">
+        <v>99365</v>
+      </c>
+      <c r="O48" s="4">
+        <v>96191</v>
+      </c>
+      <c r="P48" s="4">
+        <v>66202</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>61701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5539,8 +7313,44 @@
       <c r="D49" s="3">
         <v>72498</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="4">
+        <v>175215</v>
+      </c>
+      <c r="G49" s="4">
+        <v>169807</v>
+      </c>
+      <c r="H49" s="4">
+        <v>6742</v>
+      </c>
+      <c r="I49" s="4">
+        <v>6254</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4543</v>
+      </c>
+      <c r="K49" s="4">
+        <v>3675</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1512851</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1501267</v>
+      </c>
+      <c r="N49" s="4">
+        <v>62843</v>
+      </c>
+      <c r="O49" s="4">
+        <v>59201</v>
+      </c>
+      <c r="P49" s="4">
+        <v>33286</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>30994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -5553,8 +7363,44 @@
       <c r="D50" s="3">
         <v>35967</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="4">
+        <v>47127</v>
+      </c>
+      <c r="G50" s="4">
+        <v>49039</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1992</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1854</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1646</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1375</v>
+      </c>
+      <c r="L50" s="4">
+        <v>608348</v>
+      </c>
+      <c r="M50" s="4">
+        <v>644711</v>
+      </c>
+      <c r="N50" s="4">
+        <v>25812</v>
+      </c>
+      <c r="O50" s="4">
+        <v>24580</v>
+      </c>
+      <c r="P50" s="4">
+        <v>17238</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>15708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -5567,8 +7413,44 @@
       <c r="D51" s="3">
         <v>63238</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="4">
+        <v>73150</v>
+      </c>
+      <c r="G51" s="4">
+        <v>66316</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3450</v>
+      </c>
+      <c r="I51" s="4">
+        <v>3226</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2723</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2342</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1146736</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1161841</v>
+      </c>
+      <c r="N51" s="4">
+        <v>51450</v>
+      </c>
+      <c r="O51" s="4">
+        <v>48992</v>
+      </c>
+      <c r="P51" s="4">
+        <v>30474</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>27699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -5581,8 +7463,44 @@
       <c r="D52" s="3">
         <v>125029</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="4">
+        <v>83546</v>
+      </c>
+      <c r="G52" s="4">
+        <v>88845</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5846</v>
+      </c>
+      <c r="I52" s="4">
+        <v>5475</v>
+      </c>
+      <c r="J52" s="4">
+        <v>5333</v>
+      </c>
+      <c r="K52" s="4">
+        <v>4454</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1614101</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1679983</v>
+      </c>
+      <c r="N52" s="4">
+        <v>91250</v>
+      </c>
+      <c r="O52" s="4">
+        <v>87990</v>
+      </c>
+      <c r="P52" s="4">
+        <v>59439</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>55803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5595,8 +7513,44 @@
       <c r="D53" s="3">
         <v>35271</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="4">
+        <v>263247</v>
+      </c>
+      <c r="G53" s="4">
+        <v>194588</v>
+      </c>
+      <c r="H53" s="4">
+        <v>7190</v>
+      </c>
+      <c r="I53" s="4">
+        <v>6667</v>
+      </c>
+      <c r="J53" s="4">
+        <v>7625</v>
+      </c>
+      <c r="K53" s="4">
+        <v>5708</v>
+      </c>
+      <c r="L53" s="4">
+        <v>406286</v>
+      </c>
+      <c r="M53" s="4">
+        <v>399455</v>
+      </c>
+      <c r="N53" s="4">
+        <v>13705</v>
+      </c>
+      <c r="O53" s="4">
+        <v>12913</v>
+      </c>
+      <c r="P53" s="4">
+        <v>11238</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -5609,8 +7563,44 @@
       <c r="D54" s="3">
         <v>44309</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="4">
+        <v>829400</v>
+      </c>
+      <c r="G54" s="4">
+        <v>698100</v>
+      </c>
+      <c r="H54" s="4">
+        <v>22530</v>
+      </c>
+      <c r="I54" s="4">
+        <v>21603</v>
+      </c>
+      <c r="J54" s="4">
+        <v>25082</v>
+      </c>
+      <c r="K54" s="4">
+        <v>19227</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -5623,8 +7613,44 @@
       <c r="D55" s="3">
         <v>96992</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="4">
+        <v>225361</v>
+      </c>
+      <c r="G55" s="4">
+        <v>251662</v>
+      </c>
+      <c r="H55" s="4">
+        <v>11199</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10812</v>
+      </c>
+      <c r="J55" s="4">
+        <v>7806</v>
+      </c>
+      <c r="K55" s="4">
+        <v>6496</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1306666</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1319222</v>
+      </c>
+      <c r="N55" s="4">
+        <v>65082</v>
+      </c>
+      <c r="O55" s="4">
+        <v>62275</v>
+      </c>
+      <c r="P55" s="4">
+        <v>42753</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>39937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -5637,8 +7663,44 @@
       <c r="D56" s="3">
         <v>61011</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="4">
+        <v>70808</v>
+      </c>
+      <c r="G56" s="4">
+        <v>67471</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3642</v>
+      </c>
+      <c r="I56" s="4">
+        <v>3373</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2758</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2400</v>
+      </c>
+      <c r="L56" s="4">
+        <v>844496</v>
+      </c>
+      <c r="M56" s="4">
+        <v>865322</v>
+      </c>
+      <c r="N56" s="4">
+        <v>46965</v>
+      </c>
+      <c r="O56" s="4">
+        <v>45143</v>
+      </c>
+      <c r="P56" s="4">
+        <v>28826</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>27027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -5651,8 +7713,44 @@
       <c r="D57" s="3">
         <v>59447</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="4">
+        <v>100346</v>
+      </c>
+      <c r="G57" s="4">
+        <v>83839</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2362</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2148</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1941</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1715</v>
+      </c>
+      <c r="L57" s="4">
+        <v>877622</v>
+      </c>
+      <c r="M57" s="4">
+        <v>878540</v>
+      </c>
+      <c r="N57" s="4">
+        <v>41484</v>
+      </c>
+      <c r="O57" s="4">
+        <v>39402</v>
+      </c>
+      <c r="P57" s="4">
+        <v>29185</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>26566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -5665,8 +7763,44 @@
       <c r="D58" s="3">
         <v>44239</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="4">
+        <v>141197</v>
+      </c>
+      <c r="G58" s="4">
+        <v>122233</v>
+      </c>
+      <c r="H58" s="4">
+        <v>5968</v>
+      </c>
+      <c r="I58" s="4">
+        <v>5680</v>
+      </c>
+      <c r="J58" s="4">
+        <v>4050</v>
+      </c>
+      <c r="K58" s="4">
+        <v>3204</v>
+      </c>
+      <c r="L58" s="4">
+        <v>788650</v>
+      </c>
+      <c r="M58" s="4">
+        <v>747599</v>
+      </c>
+      <c r="N58" s="4">
+        <v>36377</v>
+      </c>
+      <c r="O58" s="4">
+        <v>34227</v>
+      </c>
+      <c r="P58" s="4">
+        <v>19671</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5679,8 +7813,44 @@
       <c r="D59" s="3">
         <v>1341</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="4">
+        <v>50359</v>
+      </c>
+      <c r="G59" s="4">
+        <v>26080</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1197</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1031</v>
+      </c>
+      <c r="J59" s="4">
+        <v>736</v>
+      </c>
+      <c r="K59" s="4">
+        <v>605</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5693,8 +7863,44 @@
       <c r="D60" s="3">
         <v>108501</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="4">
+        <v>124195</v>
+      </c>
+      <c r="G60" s="4">
+        <v>116041</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5270</v>
+      </c>
+      <c r="I60" s="4">
+        <v>5002</v>
+      </c>
+      <c r="J60" s="4">
+        <v>4281</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3705</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1629235</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1645526</v>
+      </c>
+      <c r="N60" s="4">
+        <v>82558</v>
+      </c>
+      <c r="O60" s="4">
+        <v>80941</v>
+      </c>
+      <c r="P60" s="4">
+        <v>51375</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>49143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5707,8 +7913,44 @@
       <c r="D61" s="3">
         <v>63150</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="4">
+        <v>80683</v>
+      </c>
+      <c r="G61" s="4">
+        <v>81133</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2204</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2128</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1952</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1764</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1013290</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1055166</v>
+      </c>
+      <c r="N61" s="4">
+        <v>42564</v>
+      </c>
+      <c r="O61" s="4">
+        <v>40866</v>
+      </c>
+      <c r="P61" s="4">
+        <v>31230</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>28204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -5721,8 +7963,44 @@
       <c r="D62" s="3">
         <v>56957</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="4">
+        <v>97666</v>
+      </c>
+      <c r="G62" s="4">
+        <v>85668</v>
+      </c>
+      <c r="H62" s="4">
+        <v>4095</v>
+      </c>
+      <c r="I62" s="4">
+        <v>3920</v>
+      </c>
+      <c r="J62" s="4">
+        <v>3140</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2601</v>
+      </c>
+      <c r="L62" s="4">
+        <v>816547</v>
+      </c>
+      <c r="M62" s="4">
+        <v>830860</v>
+      </c>
+      <c r="N62" s="4">
+        <v>39778</v>
+      </c>
+      <c r="O62" s="4">
+        <v>37632</v>
+      </c>
+      <c r="P62" s="4">
+        <v>27055</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>24161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5735,8 +8013,44 @@
       <c r="D63" s="3">
         <v>79201</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="4">
+        <v>77321</v>
+      </c>
+      <c r="G63" s="4">
+        <v>80154</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4351</v>
+      </c>
+      <c r="I63" s="4">
+        <v>4266</v>
+      </c>
+      <c r="J63" s="4">
+        <v>3217</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2750</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1293457</v>
+      </c>
+      <c r="M63" s="4">
+        <v>1387185</v>
+      </c>
+      <c r="N63" s="4">
+        <v>70064</v>
+      </c>
+      <c r="O63" s="4">
+        <v>66306</v>
+      </c>
+      <c r="P63" s="4">
+        <v>36974</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>36260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5749,8 +8063,44 @@
       <c r="D64" s="3">
         <v>76873</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="4">
+        <v>206004</v>
+      </c>
+      <c r="G64" s="4">
+        <v>193255</v>
+      </c>
+      <c r="H64" s="4">
+        <v>7562</v>
+      </c>
+      <c r="I64" s="4">
+        <v>6943</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5896</v>
+      </c>
+      <c r="K64" s="4">
+        <v>4750</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1554177</v>
+      </c>
+      <c r="M64" s="4">
+        <v>1207231</v>
+      </c>
+      <c r="N64" s="4">
+        <v>62191</v>
+      </c>
+      <c r="O64" s="4">
+        <v>59002</v>
+      </c>
+      <c r="P64" s="4">
+        <v>34319</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>31908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -5763,8 +8113,44 @@
       <c r="D65" s="3">
         <v>65419</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="4">
+        <v>110725</v>
+      </c>
+      <c r="G65" s="4">
+        <v>104283</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2752</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2733</v>
+      </c>
+      <c r="J65" s="4">
+        <v>2471</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1857</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1309762</v>
+      </c>
+      <c r="M65" s="4">
+        <v>1294971</v>
+      </c>
+      <c r="N65" s="4">
+        <v>56638</v>
+      </c>
+      <c r="O65" s="4">
+        <v>54117</v>
+      </c>
+      <c r="P65" s="4">
+        <v>32078</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>29013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -5777,8 +8163,44 @@
       <c r="D66" s="3">
         <v>2839</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="4">
+        <v>52442</v>
+      </c>
+      <c r="G66" s="4">
+        <v>49594</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1933</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1944</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1553</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1286</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5791,8 +8213,44 @@
       <c r="D67" s="3">
         <v>10469</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="4">
+        <v>267858</v>
+      </c>
+      <c r="G67" s="4">
+        <v>251282</v>
+      </c>
+      <c r="H67" s="4">
+        <v>7300</v>
+      </c>
+      <c r="I67" s="4">
+        <v>7075</v>
+      </c>
+      <c r="J67" s="4">
+        <v>6038</v>
+      </c>
+      <c r="K67" s="4">
+        <v>4431</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -5805,8 +8263,44 @@
       <c r="D68" s="3">
         <v>60656</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="4">
+        <v>140096</v>
+      </c>
+      <c r="G68" s="4">
+        <v>139481</v>
+      </c>
+      <c r="H68" s="4">
+        <v>4482</v>
+      </c>
+      <c r="I68" s="4">
+        <v>4194</v>
+      </c>
+      <c r="J68" s="4">
+        <v>3049</v>
+      </c>
+      <c r="K68" s="4">
+        <v>2457</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1246918</v>
+      </c>
+      <c r="M68" s="4">
+        <v>1231251</v>
+      </c>
+      <c r="N68" s="4">
+        <v>52753</v>
+      </c>
+      <c r="O68" s="4">
+        <v>49734</v>
+      </c>
+      <c r="P68" s="4">
+        <v>28866</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>26284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5819,8 +8313,44 @@
       <c r="D69" s="3">
         <v>34082</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="4">
+        <v>91809</v>
+      </c>
+      <c r="G69" s="4">
+        <v>84956</v>
+      </c>
+      <c r="H69" s="4">
+        <v>3591</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3538</v>
+      </c>
+      <c r="J69" s="4">
+        <v>2653</v>
+      </c>
+      <c r="K69" s="4">
+        <v>2311</v>
+      </c>
+      <c r="L69" s="4">
+        <v>544235</v>
+      </c>
+      <c r="M69" s="4">
+        <v>632088</v>
+      </c>
+      <c r="N69" s="4">
+        <v>19613</v>
+      </c>
+      <c r="O69" s="4">
+        <v>20220</v>
+      </c>
+      <c r="P69" s="4">
+        <v>14550</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>14568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -5833,8 +8363,44 @@
       <c r="D70" s="3">
         <v>2416554</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="4">
+        <v>5669686</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5079288</v>
+      </c>
+      <c r="H70" s="4">
+        <v>201044</v>
+      </c>
+      <c r="I70" s="4">
+        <v>190689</v>
+      </c>
+      <c r="J70" s="4">
+        <v>168352</v>
+      </c>
+      <c r="K70" s="4">
+        <v>136601</v>
+      </c>
+      <c r="L70" s="4">
+        <v>35710736</v>
+      </c>
+      <c r="M70" s="4">
+        <v>36326623</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1723976</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1647852</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1093833</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>1017768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -5847,8 +8413,44 @@
       <c r="D71" s="3">
         <v>104193</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="4">
+        <v>206108</v>
+      </c>
+      <c r="G71" s="4">
+        <v>187415</v>
+      </c>
+      <c r="H71" s="4">
+        <v>8191</v>
+      </c>
+      <c r="I71" s="4">
+        <v>7600</v>
+      </c>
+      <c r="J71" s="4">
+        <v>7766</v>
+      </c>
+      <c r="K71" s="4">
+        <v>5962</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1388517</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1329181</v>
+      </c>
+      <c r="N71" s="4">
+        <v>73985</v>
+      </c>
+      <c r="O71" s="4">
+        <v>70090</v>
+      </c>
+      <c r="P71" s="4">
+        <v>47486</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -5861,8 +8463,44 @@
       <c r="D72" s="3">
         <v>3448269</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="4">
+        <v>8813799</v>
+      </c>
+      <c r="G72" s="4">
+        <v>8279370</v>
+      </c>
+      <c r="H72" s="4">
+        <v>314643</v>
+      </c>
+      <c r="I72" s="4">
+        <v>292293</v>
+      </c>
+      <c r="J72" s="4">
+        <v>247839</v>
+      </c>
+      <c r="K72" s="4">
+        <v>203388</v>
+      </c>
+      <c r="L72" s="4">
+        <v>55008234</v>
+      </c>
+      <c r="M72" s="4">
+        <v>56005213</v>
+      </c>
+      <c r="N72" s="4">
+        <v>2505918</v>
+      </c>
+      <c r="O72" s="4">
+        <v>2389739</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1553487</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1443555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -5875,8 +8513,44 @@
       <c r="D73" s="3">
         <v>16422</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="4">
+        <v>41417</v>
+      </c>
+      <c r="G73" s="4">
+        <v>35905</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1031</v>
+      </c>
+      <c r="I73" s="4">
+        <v>816</v>
+      </c>
+      <c r="J73" s="4">
+        <v>799</v>
+      </c>
+      <c r="K73" s="4">
+        <v>725</v>
+      </c>
+      <c r="L73" s="4">
+        <v>378873</v>
+      </c>
+      <c r="M73" s="4">
+        <v>307511</v>
+      </c>
+      <c r="N73" s="4">
+        <v>10289</v>
+      </c>
+      <c r="O73" s="4">
+        <v>9258</v>
+      </c>
+      <c r="P73" s="4">
+        <v>8394</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -5889,8 +8563,44 @@
       <c r="D74" s="3">
         <v>5398</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74" s="4">
+        <v>205447</v>
+      </c>
+      <c r="G74" s="4">
+        <v>129382</v>
+      </c>
+      <c r="H74" s="4">
+        <v>4763</v>
+      </c>
+      <c r="I74" s="4">
+        <v>3869</v>
+      </c>
+      <c r="J74" s="4">
+        <v>3182</v>
+      </c>
+      <c r="K74" s="4">
+        <v>2216</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -5903,8 +8613,44 @@
       <c r="D75" s="3">
         <v>2782</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="4">
+        <v>17631</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="4">
+        <v>459</v>
+      </c>
+      <c r="I75" s="4">
+        <v>401</v>
+      </c>
+      <c r="J75" s="4">
+        <v>265</v>
+      </c>
+      <c r="K75" s="4">
+        <v>256</v>
+      </c>
+      <c r="L75" s="4">
+        <v>64321</v>
+      </c>
+      <c r="M75" s="4">
+        <v>63229</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1775</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1594</v>
+      </c>
+      <c r="P75" s="4">
+        <v>1290</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -5917,8 +8663,44 @@
       <c r="D76" s="3">
         <v>12228</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="4">
+        <v>40161</v>
+      </c>
+      <c r="G76" s="4">
+        <v>24881</v>
+      </c>
+      <c r="H76" s="4">
+        <v>753</v>
+      </c>
+      <c r="I76" s="4">
+        <v>718</v>
+      </c>
+      <c r="J76" s="4">
+        <v>620</v>
+      </c>
+      <c r="K76" s="4">
+        <v>551</v>
+      </c>
+      <c r="L76" s="4">
+        <v>317260</v>
+      </c>
+      <c r="M76" s="4">
+        <v>290915</v>
+      </c>
+      <c r="N76" s="4">
+        <v>7300</v>
+      </c>
+      <c r="O76" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P76" s="4">
+        <v>6302</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -5931,8 +8713,44 @@
       <c r="D77" s="3">
         <v>23174</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="4">
+        <v>63652</v>
+      </c>
+      <c r="G77" s="4">
+        <v>57012</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1066</v>
+      </c>
+      <c r="I77" s="4">
+        <v>933</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K77" s="4">
+        <v>832</v>
+      </c>
+      <c r="L77" s="4">
+        <v>553821</v>
+      </c>
+      <c r="M77" s="4">
+        <v>472741</v>
+      </c>
+      <c r="N77" s="4">
+        <v>14048</v>
+      </c>
+      <c r="O77" s="4">
+        <v>12915</v>
+      </c>
+      <c r="P77" s="4">
+        <v>13138</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>8204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -5945,8 +8763,44 @@
       <c r="D78" s="3">
         <v>6837</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78" s="4">
+        <v>22400</v>
+      </c>
+      <c r="G78" s="4">
+        <v>18746</v>
+      </c>
+      <c r="H78" s="4">
+        <v>333</v>
+      </c>
+      <c r="I78" s="4">
+        <v>310</v>
+      </c>
+      <c r="J78" s="4">
+        <v>224</v>
+      </c>
+      <c r="K78" s="4">
+        <v>206</v>
+      </c>
+      <c r="L78" s="4">
+        <v>156503</v>
+      </c>
+      <c r="M78" s="4">
+        <v>147453</v>
+      </c>
+      <c r="N78" s="4">
+        <v>5904</v>
+      </c>
+      <c r="O78" s="4">
+        <v>5754</v>
+      </c>
+      <c r="P78" s="4">
+        <v>3431</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -5959,8 +8813,44 @@
       <c r="D79" s="3">
         <v>88878</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="4">
+        <v>100574</v>
+      </c>
+      <c r="G79" s="4">
+        <v>94402</v>
+      </c>
+      <c r="H79" s="4">
+        <v>4904</v>
+      </c>
+      <c r="I79" s="4">
+        <v>4776</v>
+      </c>
+      <c r="J79" s="4">
+        <v>4150</v>
+      </c>
+      <c r="K79" s="4">
+        <v>3349</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1176436</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1148471</v>
+      </c>
+      <c r="N79" s="4">
+        <v>66734</v>
+      </c>
+      <c r="O79" s="4">
+        <v>63128</v>
+      </c>
+      <c r="P79" s="4">
+        <v>42291</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>39088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -5973,8 +8863,44 @@
       <c r="D80" s="3">
         <v>17166</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="4">
+        <v>43490</v>
+      </c>
+      <c r="G80" s="4">
+        <v>26181</v>
+      </c>
+      <c r="H80" s="4">
+        <v>786</v>
+      </c>
+      <c r="I80" s="4">
+        <v>617</v>
+      </c>
+      <c r="J80" s="4">
+        <v>579</v>
+      </c>
+      <c r="K80" s="4">
+        <v>440</v>
+      </c>
+      <c r="L80" s="4">
+        <v>550177</v>
+      </c>
+      <c r="M80" s="4">
+        <v>472427</v>
+      </c>
+      <c r="N80" s="4">
+        <v>14042</v>
+      </c>
+      <c r="O80" s="4">
+        <v>12692</v>
+      </c>
+      <c r="P80" s="4">
+        <v>8473</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -5987,8 +8913,44 @@
       <c r="D81" s="3">
         <v>42949</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="4">
+        <v>34856</v>
+      </c>
+      <c r="G81" s="4">
+        <v>33050</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1311</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1408</v>
+      </c>
+      <c r="J81" s="4">
+        <v>873</v>
+      </c>
+      <c r="K81" s="4">
+        <v>826</v>
+      </c>
+      <c r="L81" s="4">
+        <v>559758</v>
+      </c>
+      <c r="M81" s="4">
+        <v>547751</v>
+      </c>
+      <c r="N81" s="4">
+        <v>31610</v>
+      </c>
+      <c r="O81" s="4">
+        <v>32813</v>
+      </c>
+      <c r="P81" s="4">
+        <v>20767</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>20483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -6001,8 +8963,44 @@
       <c r="D82" s="3">
         <v>28888</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="4">
+        <v>92991</v>
+      </c>
+      <c r="G82" s="4">
+        <v>79226</v>
+      </c>
+      <c r="H82" s="4">
+        <v>4176</v>
+      </c>
+      <c r="I82" s="4">
+        <v>3950</v>
+      </c>
+      <c r="J82" s="4">
+        <v>3178</v>
+      </c>
+      <c r="K82" s="4">
+        <v>2326</v>
+      </c>
+      <c r="L82" s="4">
+        <v>447729</v>
+      </c>
+      <c r="M82" s="4">
+        <v>484516</v>
+      </c>
+      <c r="N82" s="4">
+        <v>19509</v>
+      </c>
+      <c r="O82" s="4">
+        <v>17630</v>
+      </c>
+      <c r="P82" s="4">
+        <v>12627</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>10757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -6015,8 +9013,44 @@
       <c r="D83" s="3">
         <v>22976</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="4">
+        <v>203618</v>
+      </c>
+      <c r="G83" s="4">
+        <v>157249</v>
+      </c>
+      <c r="H83" s="4">
+        <v>6219</v>
+      </c>
+      <c r="I83" s="4">
+        <v>4118</v>
+      </c>
+      <c r="J83" s="4">
+        <v>3206</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1864</v>
+      </c>
+      <c r="L83" s="4">
+        <v>472847</v>
+      </c>
+      <c r="M83" s="4">
+        <v>413759</v>
+      </c>
+      <c r="N83" s="4">
+        <v>16085</v>
+      </c>
+      <c r="O83" s="4">
+        <v>13804</v>
+      </c>
+      <c r="P83" s="4">
+        <v>9829</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>133</v>
       </c>
@@ -6029,8 +9063,44 @@
       <c r="D84" s="3">
         <v>2085</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="4">
+        <v>35454</v>
+      </c>
+      <c r="G84" s="4">
+        <v>23920</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1004</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1031</v>
+      </c>
+      <c r="J84" s="4">
+        <v>660</v>
+      </c>
+      <c r="K84" s="4">
+        <v>491</v>
+      </c>
+      <c r="L84" s="4">
+        <v>34639</v>
+      </c>
+      <c r="M84" s="4">
+        <v>26116</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1061</v>
+      </c>
+      <c r="O84" s="4">
+        <v>1062</v>
+      </c>
+      <c r="P84" s="4">
+        <v>524</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -6043,8 +9113,44 @@
       <c r="D85" s="3">
         <v>23862</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="4">
+        <v>49086</v>
+      </c>
+      <c r="G85" s="4">
+        <v>34937</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1935</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1834</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1501</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1369</v>
+      </c>
+      <c r="L85" s="4">
+        <v>416767</v>
+      </c>
+      <c r="M85" s="4">
+        <v>369010</v>
+      </c>
+      <c r="N85" s="4">
+        <v>17502</v>
+      </c>
+      <c r="O85" s="4">
+        <v>15211</v>
+      </c>
+      <c r="P85" s="4">
+        <v>11156</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>9836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -6057,8 +9163,44 @@
       <c r="D86" s="3">
         <v>293645</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" s="4">
+        <v>950779</v>
+      </c>
+      <c r="G86" s="4">
+        <v>729159</v>
+      </c>
+      <c r="H86" s="4">
+        <v>28740</v>
+      </c>
+      <c r="I86" s="4">
+        <v>24781</v>
+      </c>
+      <c r="J86" s="4">
+        <v>20237</v>
+      </c>
+      <c r="K86" s="4">
+        <v>15451</v>
+      </c>
+      <c r="L86" s="4">
+        <v>5129131</v>
+      </c>
+      <c r="M86" s="4">
+        <v>4743899</v>
+      </c>
+      <c r="N86" s="4">
+        <v>205859</v>
+      </c>
+      <c r="O86" s="4">
+        <v>192361</v>
+      </c>
+      <c r="P86" s="4">
+        <v>138222</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>119735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -6071,8 +9213,44 @@
       <c r="D87" s="3">
         <v>4721</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87" s="4">
+        <v>35207</v>
+      </c>
+      <c r="G87" s="4">
+        <v>21207</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1427</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1444</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1206</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1111</v>
+      </c>
+      <c r="L87" s="4">
+        <v>59592</v>
+      </c>
+      <c r="M87" s="4">
+        <v>41266</v>
+      </c>
+      <c r="N87" s="4">
+        <v>2921</v>
+      </c>
+      <c r="O87" s="4">
+        <v>2912</v>
+      </c>
+      <c r="P87" s="4">
+        <v>1327</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -6085,8 +9263,44 @@
       <c r="D88" s="3">
         <v>33584</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" s="4">
+        <v>59408</v>
+      </c>
+      <c r="G88" s="4">
+        <v>51846</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2664</v>
+      </c>
+      <c r="I88" s="4">
+        <v>2559</v>
+      </c>
+      <c r="J88" s="4">
+        <v>2344</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1807</v>
+      </c>
+      <c r="L88" s="4">
+        <v>374291</v>
+      </c>
+      <c r="M88" s="4">
+        <v>332430</v>
+      </c>
+      <c r="N88" s="4">
+        <v>22403</v>
+      </c>
+      <c r="O88" s="4">
+        <v>21577</v>
+      </c>
+      <c r="P88" s="4">
+        <v>15508</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>13925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -6099,8 +9313,44 @@
       <c r="D89" s="3">
         <v>21179</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89" s="4">
+        <v>72892</v>
+      </c>
+      <c r="G89" s="4">
+        <v>41498</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1994</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1926</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1518</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1194</v>
+      </c>
+      <c r="L89" s="4">
+        <v>375847</v>
+      </c>
+      <c r="M89" s="4">
+        <v>352914</v>
+      </c>
+      <c r="N89" s="4">
+        <v>15517</v>
+      </c>
+      <c r="O89" s="4">
+        <v>13939</v>
+      </c>
+      <c r="P89" s="4">
+        <v>9785</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>8682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -6113,8 +9363,44 @@
       <c r="D90" s="3">
         <v>22017</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90" s="4">
+        <v>68974</v>
+      </c>
+      <c r="G90" s="4">
+        <v>50759</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2163</v>
+      </c>
+      <c r="I90" s="4">
+        <v>2175</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1900</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1436</v>
+      </c>
+      <c r="L90" s="4">
+        <v>293494</v>
+      </c>
+      <c r="M90" s="4">
+        <v>249831</v>
+      </c>
+      <c r="N90" s="4">
+        <v>13303</v>
+      </c>
+      <c r="O90" s="4">
+        <v>12638</v>
+      </c>
+      <c r="P90" s="4">
+        <v>9108</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>9573</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -6127,8 +9413,44 @@
       <c r="D91" s="3">
         <v>10324</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91" s="4">
+        <v>132711</v>
+      </c>
+      <c r="G91" s="4">
+        <v>49128</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2919</v>
+      </c>
+      <c r="I91" s="4">
+        <v>2219</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1780</v>
+      </c>
+      <c r="K91" s="4">
+        <v>995</v>
+      </c>
+      <c r="L91" s="4">
+        <v>199242</v>
+      </c>
+      <c r="M91" s="4">
+        <v>149724</v>
+      </c>
+      <c r="N91" s="4">
+        <v>7614</v>
+      </c>
+      <c r="O91" s="4">
+        <v>6813</v>
+      </c>
+      <c r="P91" s="4">
+        <v>4101</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>141</v>
       </c>
@@ -6141,8 +9463,44 @@
       <c r="D92" s="3">
         <v>70483</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92" s="4">
+        <v>63446</v>
+      </c>
+      <c r="G92" s="4">
+        <v>53611</v>
+      </c>
+      <c r="H92" s="4">
+        <v>2191</v>
+      </c>
+      <c r="I92" s="4">
+        <v>2012</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1571</v>
+      </c>
+      <c r="L92" s="4">
+        <v>839767</v>
+      </c>
+      <c r="M92" s="4">
+        <v>841990</v>
+      </c>
+      <c r="N92" s="4">
+        <v>51723</v>
+      </c>
+      <c r="O92" s="4">
+        <v>49266</v>
+      </c>
+      <c r="P92" s="4">
+        <v>34694</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>32196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -6155,8 +9513,44 @@
       <c r="D93" s="3">
         <v>103839</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93" s="4">
+        <v>86116</v>
+      </c>
+      <c r="G93" s="4">
+        <v>87583</v>
+      </c>
+      <c r="H93" s="4">
+        <v>3872</v>
+      </c>
+      <c r="I93" s="4">
+        <v>3604</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2672</v>
+      </c>
+      <c r="K93" s="4">
+        <v>2243</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1493276</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1433965</v>
+      </c>
+      <c r="N93" s="4">
+        <v>81142</v>
+      </c>
+      <c r="O93" s="4">
+        <v>77617</v>
+      </c>
+      <c r="P93" s="4">
+        <v>51147</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>47777</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -6169,8 +9563,44 @@
       <c r="D94" s="3">
         <v>7595</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94" s="4">
+        <v>5802</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4879</v>
+      </c>
+      <c r="H94" s="4">
+        <v>342</v>
+      </c>
+      <c r="I94" s="4">
+        <v>287</v>
+      </c>
+      <c r="J94" s="4">
+        <v>266</v>
+      </c>
+      <c r="K94" s="4">
+        <v>221</v>
+      </c>
+      <c r="L94" s="4">
+        <v>134037</v>
+      </c>
+      <c r="M94" s="4">
+        <v>124587</v>
+      </c>
+      <c r="N94" s="4">
+        <v>5005</v>
+      </c>
+      <c r="O94" s="4">
+        <v>4894</v>
+      </c>
+      <c r="P94" s="4">
+        <v>3560</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -6183,8 +9613,44 @@
       <c r="D95" s="3">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>4064</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2145</v>
+      </c>
+      <c r="N95" s="4">
+        <v>104</v>
+      </c>
+      <c r="O95" s="4">
+        <v>117</v>
+      </c>
+      <c r="P95" s="4">
+        <v>119</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -6197,8 +9663,44 @@
       <c r="D96" s="3">
         <v>273897</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96" s="4">
+        <v>524556</v>
+      </c>
+      <c r="G96" s="4">
+        <v>360511</v>
+      </c>
+      <c r="H96" s="4">
+        <v>17572</v>
+      </c>
+      <c r="I96" s="4">
+        <v>16226</v>
+      </c>
+      <c r="J96" s="4">
+        <v>13708</v>
+      </c>
+      <c r="K96" s="4">
+        <v>10578</v>
+      </c>
+      <c r="L96" s="4">
+        <v>3773610</v>
+      </c>
+      <c r="M96" s="4">
+        <v>3528852</v>
+      </c>
+      <c r="N96" s="4">
+        <v>199732</v>
+      </c>
+      <c r="O96" s="4">
+        <v>189773</v>
+      </c>
+      <c r="P96" s="4">
+        <v>129349</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>120262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -6211,8 +9713,44 @@
       <c r="D97" s="3">
         <v>25326</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" s="4">
+        <v>73165</v>
+      </c>
+      <c r="G97" s="4">
+        <v>73365</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3988</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3829</v>
+      </c>
+      <c r="J97" s="4">
+        <v>3238</v>
+      </c>
+      <c r="K97" s="4">
+        <v>3007</v>
+      </c>
+      <c r="L97" s="4">
+        <v>509576</v>
+      </c>
+      <c r="M97" s="4">
+        <v>464896</v>
+      </c>
+      <c r="N97" s="4">
+        <v>17430</v>
+      </c>
+      <c r="O97" s="4">
+        <v>16907</v>
+      </c>
+      <c r="P97" s="4">
+        <v>9629</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -6225,8 +9763,44 @@
       <c r="D98" s="3">
         <v>6531</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -6239,8 +9813,44 @@
       <c r="D99" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99" s="4">
+        <v>73213</v>
+      </c>
+      <c r="G99" s="4">
+        <v>68548</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L99" s="4">
+        <v>396244</v>
+      </c>
+      <c r="M99" s="4">
+        <v>341740</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -6253,8 +9863,44 @@
       <c r="D100" s="3">
         <v>10716</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100" s="4">
+        <v>28960</v>
+      </c>
+      <c r="G100" s="4">
+        <v>26527</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1498</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1449</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1038</v>
+      </c>
+      <c r="K100" s="4">
+        <v>881</v>
+      </c>
+      <c r="L100" s="4">
+        <v>392935</v>
+      </c>
+      <c r="M100" s="4">
+        <v>322594</v>
+      </c>
+      <c r="N100" s="4">
+        <v>8253</v>
+      </c>
+      <c r="O100" s="4">
+        <v>6663</v>
+      </c>
+      <c r="P100" s="4">
+        <v>4760</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -6267,8 +9913,44 @@
       <c r="D101" s="3">
         <v>19360</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="4">
+        <v>54214</v>
+      </c>
+      <c r="G101" s="4">
+        <v>44452</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2386</v>
+      </c>
+      <c r="I101" s="4">
+        <v>2118</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1181</v>
+      </c>
+      <c r="K101" s="4">
+        <v>947</v>
+      </c>
+      <c r="L101" s="4">
+        <v>562836</v>
+      </c>
+      <c r="M101" s="4">
+        <v>455863</v>
+      </c>
+      <c r="N101" s="4">
+        <v>17621</v>
+      </c>
+      <c r="O101" s="4">
+        <v>14870</v>
+      </c>
+      <c r="P101" s="4">
+        <v>9362</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -6281,8 +9963,44 @@
       <c r="D102" s="3">
         <v>56176</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102" s="4">
+        <v>134215</v>
+      </c>
+      <c r="G102" s="4">
+        <v>110595</v>
+      </c>
+      <c r="H102" s="4">
+        <v>3907</v>
+      </c>
+      <c r="I102" s="4">
+        <v>2817</v>
+      </c>
+      <c r="J102" s="4">
+        <v>2680</v>
+      </c>
+      <c r="K102" s="4">
+        <v>2185</v>
+      </c>
+      <c r="L102" s="4">
+        <v>791928</v>
+      </c>
+      <c r="M102" s="4">
+        <v>655864</v>
+      </c>
+      <c r="N102" s="4">
+        <v>35734</v>
+      </c>
+      <c r="O102" s="4">
+        <v>32331</v>
+      </c>
+      <c r="P102" s="4">
+        <v>28221</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>23090</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -6295,8 +10013,44 @@
       <c r="D103" s="3">
         <v>16508</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103" s="4">
+        <v>17079</v>
+      </c>
+      <c r="G103" s="4">
+        <v>16408</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1175</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1134</v>
+      </c>
+      <c r="J103" s="4">
+        <v>731</v>
+      </c>
+      <c r="K103" s="4">
+        <v>593</v>
+      </c>
+      <c r="L103" s="4">
+        <v>307922</v>
+      </c>
+      <c r="M103" s="4">
+        <v>272762</v>
+      </c>
+      <c r="N103" s="4">
+        <v>12659</v>
+      </c>
+      <c r="O103" s="4">
+        <v>11020</v>
+      </c>
+      <c r="P103" s="4">
+        <v>7922</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>7262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -6309,8 +10063,44 @@
       <c r="D104" s="3">
         <v>13720</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F104" s="4">
+        <v>31305</v>
+      </c>
+      <c r="G104" s="4">
+        <v>29936</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1545</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1421</v>
+      </c>
+      <c r="J104" s="4">
+        <v>1167</v>
+      </c>
+      <c r="K104" s="4">
+        <v>908</v>
+      </c>
+      <c r="L104" s="4">
+        <v>363147</v>
+      </c>
+      <c r="M104" s="4">
+        <v>325840</v>
+      </c>
+      <c r="N104" s="4">
+        <v>8994</v>
+      </c>
+      <c r="O104" s="4">
+        <v>8155</v>
+      </c>
+      <c r="P104" s="4">
+        <v>6137</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -6323,8 +10113,44 @@
       <c r="D105" s="3">
         <v>31777</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F105" s="4">
+        <v>202398</v>
+      </c>
+      <c r="G105" s="4">
+        <v>169850</v>
+      </c>
+      <c r="H105" s="4">
+        <v>6378</v>
+      </c>
+      <c r="I105" s="4">
+        <v>6128</v>
+      </c>
+      <c r="J105" s="4">
+        <v>3557</v>
+      </c>
+      <c r="K105" s="4">
+        <v>3305</v>
+      </c>
+      <c r="L105" s="4">
+        <v>850588</v>
+      </c>
+      <c r="M105" s="4">
+        <v>727498</v>
+      </c>
+      <c r="N105" s="4">
+        <v>21301</v>
+      </c>
+      <c r="O105" s="4">
+        <v>19812</v>
+      </c>
+      <c r="P105" s="4">
+        <v>13341</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -6337,8 +10163,44 @@
       <c r="D106" s="3">
         <v>180114</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106" s="4">
+        <v>614549</v>
+      </c>
+      <c r="G106" s="4">
+        <v>539681</v>
+      </c>
+      <c r="H106" s="4">
+        <v>20877</v>
+      </c>
+      <c r="I106" s="4">
+        <v>18896</v>
+      </c>
+      <c r="J106" s="4">
+        <v>13592</v>
+      </c>
+      <c r="K106" s="4">
+        <v>11826</v>
+      </c>
+      <c r="L106" s="4">
+        <v>4175176</v>
+      </c>
+      <c r="M106" s="4">
+        <v>3567057</v>
+      </c>
+      <c r="N106" s="4">
+        <v>121992</v>
+      </c>
+      <c r="O106" s="4">
+        <v>109758</v>
+      </c>
+      <c r="P106" s="4">
+        <v>79372</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>68793</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -6351,8 +10213,44 @@
       <c r="D107" s="3">
         <v>747656</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107" s="4">
+        <v>2089884</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1629351</v>
+      </c>
+      <c r="H107" s="4">
+        <v>67189</v>
+      </c>
+      <c r="I107" s="4">
+        <v>59903</v>
+      </c>
+      <c r="J107" s="4">
+        <v>47537</v>
+      </c>
+      <c r="K107" s="4">
+        <v>37855</v>
+      </c>
+      <c r="L107" s="4">
+        <v>13077917</v>
+      </c>
+      <c r="M107" s="4">
+        <v>11839808</v>
+      </c>
+      <c r="N107" s="4">
+        <v>527583</v>
+      </c>
+      <c r="O107" s="4">
+        <v>491892</v>
+      </c>
+      <c r="P107" s="4">
+        <v>346943</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>308790</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>157</v>
       </c>
@@ -6365,633 +10263,717 @@
       <c r="D108" s="3">
         <v>4195925</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F108" s="4">
+        <v>10903674</v>
+      </c>
+      <c r="G108" s="4">
+        <v>9899721</v>
+      </c>
+      <c r="H108" s="4">
+        <v>381832</v>
+      </c>
+      <c r="I108" s="4">
+        <v>352196</v>
+      </c>
+      <c r="J108" s="4">
+        <v>295376</v>
+      </c>
+      <c r="K108" s="4">
+        <v>241243</v>
+      </c>
+      <c r="L108" s="4">
+        <v>68086151</v>
+      </c>
+      <c r="M108" s="4">
+        <v>67845021</v>
+      </c>
+      <c r="N108" s="4">
+        <v>3033591</v>
+      </c>
+      <c r="O108" s="4">
+        <v>2881631</v>
+      </c>
+      <c r="P108" s="4">
+        <v>1900430</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>1752345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06058FBC-AE5B-41FB-AF77-E85FFFBFB927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6BB9A-767A-48C4-8E7B-64FEA0A76366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
   <si>
     <t>губ</t>
   </si>
@@ -569,6 +569,27 @@
   </si>
   <si>
     <t>1425;</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -4881,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233C3929-9429-4275-AA31-D045521B40BA}">
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="T101" sqref="T101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,14 +4914,26 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4920,37 +4953,73 @@
         <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -4969,38 +5038,48 @@
       <c r="G2" s="4">
         <v>17942</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>830</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>804</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>887</v>
       </c>
-      <c r="K2" s="4">
+      <c r="O2" s="4">
         <v>659</v>
       </c>
-      <c r="L2" s="4">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>178080</v>
       </c>
-      <c r="M2" s="4">
+      <c r="S2" s="4">
         <v>197719</v>
       </c>
-      <c r="N2" s="4">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4">
         <v>7996</v>
       </c>
-      <c r="O2" s="4">
+      <c r="W2" s="4">
         <v>7690</v>
       </c>
-      <c r="P2" s="4">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4">
         <v>5063</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="AA2" s="4">
         <v>4577</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5019,38 +5098,48 @@
       <c r="G3" s="4">
         <v>83523</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>3623</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>3499</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>4091</v>
       </c>
-      <c r="K3" s="4">
+      <c r="O3" s="4">
         <v>2993</v>
       </c>
-      <c r="L3" s="4">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
         <v>553876</v>
       </c>
-      <c r="M3" s="4">
+      <c r="S3" s="4">
         <v>518252</v>
       </c>
-      <c r="N3" s="4">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>21342</v>
       </c>
-      <c r="O3" s="4">
+      <c r="W3" s="4">
         <v>19333</v>
       </c>
-      <c r="P3" s="4">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
         <v>14403</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="AA3" s="4">
         <v>12428</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -5069,38 +5158,48 @@
       <c r="G4" s="4">
         <v>107277</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>4094</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>3422</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>2866</v>
       </c>
-      <c r="K4" s="4">
+      <c r="O4" s="4">
         <v>2541</v>
       </c>
-      <c r="L4" s="4">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
         <v>828411</v>
       </c>
-      <c r="M4" s="4">
+      <c r="S4" s="4">
         <v>845243</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O4" s="4">
+      <c r="W4" s="4">
         <v>24578</v>
       </c>
-      <c r="P4" s="4">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
         <v>15055</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="AA4" s="4">
         <v>13873</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5119,38 +5218,48 @@
       <c r="G5" s="4">
         <v>121733</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>4187</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>3645</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>2693</v>
       </c>
-      <c r="K5" s="4">
+      <c r="O5" s="4">
         <v>2234</v>
       </c>
-      <c r="L5" s="4">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
         <v>767350</v>
       </c>
-      <c r="M5" s="4">
+      <c r="S5" s="4">
         <v>782274</v>
       </c>
-      <c r="N5" s="4">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>27925</v>
       </c>
-      <c r="O5" s="4">
+      <c r="W5" s="4">
         <v>26285</v>
       </c>
-      <c r="P5" s="4">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <v>15671</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="AA5" s="4">
         <v>14146</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5169,38 +5278,48 @@
       <c r="G6" s="4">
         <v>164351</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>4721</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>3834</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>2755</v>
       </c>
-      <c r="K6" s="4">
+      <c r="O6" s="4">
         <v>2389</v>
       </c>
-      <c r="L6" s="4">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
         <v>1646550</v>
       </c>
-      <c r="M6" s="4">
+      <c r="S6" s="4">
         <v>1633977</v>
       </c>
-      <c r="N6" s="4">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>71844</v>
       </c>
-      <c r="O6" s="4">
+      <c r="W6" s="4">
         <v>66733</v>
       </c>
-      <c r="P6" s="4">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <v>40228</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AA6" s="4">
         <v>36587</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5219,38 +5338,48 @@
       <c r="G7" s="4">
         <v>122940</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>3576</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>2652</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>2245</v>
       </c>
-      <c r="K7" s="4">
+      <c r="O7" s="4">
         <v>1785</v>
       </c>
-      <c r="L7" s="4">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
         <v>748565</v>
       </c>
-      <c r="M7" s="4">
+      <c r="S7" s="4">
         <v>728800</v>
       </c>
-      <c r="N7" s="4">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
         <v>29347</v>
       </c>
-      <c r="O7" s="4">
+      <c r="W7" s="4">
         <v>27271</v>
       </c>
-      <c r="P7" s="4">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4">
         <v>18160</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="AA7" s="4">
         <v>17194</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5269,38 +5398,48 @@
       <c r="G8" s="4">
         <v>372167</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>11384</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>10363</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
         <v>9032</v>
       </c>
-      <c r="K8" s="4">
+      <c r="O8" s="4">
         <v>6887</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
         <v>1709670</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>1993195</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
         <v>81608</v>
       </c>
-      <c r="O8" s="4">
+      <c r="W8" s="4">
         <v>76651</v>
       </c>
-      <c r="P8" s="4">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
         <v>48785</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="AA8" s="4">
         <v>43999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5319,38 +5458,48 @@
       <c r="G9" s="4">
         <v>71000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>2093</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>1858</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1711</v>
       </c>
-      <c r="K9" s="4">
+      <c r="O9" s="4">
         <v>1370</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
         <v>761765</v>
       </c>
-      <c r="M9" s="4">
+      <c r="S9" s="4">
         <v>807282</v>
       </c>
-      <c r="N9" s="4">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
         <v>23841</v>
       </c>
-      <c r="O9" s="4">
+      <c r="W9" s="4">
         <v>22758</v>
       </c>
-      <c r="P9" s="4">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
         <v>15735</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="AA9" s="4">
         <v>14959</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -5369,38 +5518,48 @@
       <c r="G10" s="4">
         <v>127508</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>4748</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>4135</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>2890</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <v>2386</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
         <v>1236578</v>
       </c>
-      <c r="M10" s="4">
+      <c r="S10" s="4">
         <v>1236595</v>
       </c>
-      <c r="N10" s="4">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
         <v>50428</v>
       </c>
-      <c r="O10" s="4">
+      <c r="W10" s="4">
         <v>46893</v>
       </c>
-      <c r="P10" s="4">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
         <v>25788</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="AA10" s="4">
         <v>23584</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5419,38 +5578,48 @@
       <c r="G11" s="4">
         <v>111677</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>2888</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>2471</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1668</v>
       </c>
-      <c r="K11" s="4">
+      <c r="O11" s="4">
         <v>1434</v>
       </c>
-      <c r="L11" s="4">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
         <v>970085</v>
       </c>
-      <c r="M11" s="4">
+      <c r="S11" s="4">
         <v>974104</v>
       </c>
-      <c r="N11" s="4">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <v>39568</v>
       </c>
-      <c r="O11" s="4">
+      <c r="W11" s="4">
         <v>37228</v>
       </c>
-      <c r="P11" s="4">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
         <v>21520</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="AA11" s="4">
         <v>19725</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5469,38 +5638,48 @@
       <c r="G12" s="4">
         <v>109064</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6032</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>5904</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>5300</v>
       </c>
-      <c r="K12" s="4">
+      <c r="O12" s="4">
         <v>4385</v>
       </c>
-      <c r="L12" s="4">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
         <v>916420</v>
       </c>
-      <c r="M12" s="4">
+      <c r="S12" s="4">
         <v>914930</v>
       </c>
-      <c r="N12" s="4">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
         <v>55893</v>
       </c>
-      <c r="O12" s="4">
+      <c r="W12" s="4">
         <v>53700</v>
       </c>
-      <c r="P12" s="4">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
         <v>36678</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="AA12" s="4">
         <v>34062</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5519,38 +5698,48 @@
       <c r="G13" s="4">
         <v>128344</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>3695</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>3248</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>2309</v>
       </c>
-      <c r="K13" s="4">
+      <c r="O13" s="4">
         <v>1747</v>
       </c>
-      <c r="L13" s="4">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
         <v>1605498</v>
       </c>
-      <c r="M13" s="4">
+      <c r="S13" s="4">
         <v>1630791</v>
       </c>
-      <c r="N13" s="4">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
         <v>72032</v>
       </c>
-      <c r="O13" s="4">
+      <c r="W13" s="4">
         <v>67398</v>
       </c>
-      <c r="P13" s="4">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
         <v>38852</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="AA13" s="4">
         <v>34021</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -5569,38 +5758,48 @@
       <c r="G14" s="4">
         <v>1537526</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>51871</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>45835</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>38447</v>
       </c>
-      <c r="K14" s="4">
+      <c r="O14" s="4">
         <v>80610</v>
       </c>
-      <c r="L14" s="4">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
         <v>11922848</v>
       </c>
-      <c r="M14" s="4">
+      <c r="S14" s="4">
         <v>12263162</v>
       </c>
-      <c r="N14" s="4">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
         <v>507693</v>
       </c>
-      <c r="O14" s="4">
+      <c r="W14" s="4">
         <v>476518</v>
       </c>
-      <c r="P14" s="4">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4">
         <v>295938</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="AA14" s="4">
         <v>269155</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5619,38 +5818,48 @@
       <c r="G15" s="4">
         <v>67184</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>2983</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>2715</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>1615</v>
       </c>
-      <c r="K15" s="4">
+      <c r="O15" s="4">
         <v>1468</v>
       </c>
-      <c r="L15" s="4">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
         <v>801848</v>
       </c>
-      <c r="M15" s="4">
+      <c r="S15" s="4">
         <v>820047</v>
       </c>
-      <c r="N15" s="4">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
         <v>26382</v>
       </c>
-      <c r="O15" s="4">
+      <c r="W15" s="4">
         <v>25481</v>
       </c>
-      <c r="P15" s="4">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4">
         <v>14012</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="AA15" s="4">
         <v>12389</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5669,38 +5878,48 @@
       <c r="G16" s="4">
         <v>393219</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>12412</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>10839</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>8297</v>
       </c>
-      <c r="K16" s="4">
+      <c r="O16" s="4">
         <v>7520</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -5719,38 +5938,48 @@
       <c r="G17" s="4">
         <v>54812</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>1400</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <v>1310</v>
       </c>
-      <c r="J17" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>844</v>
       </c>
-      <c r="K17" s="4">
+      <c r="O17" s="4">
         <v>804</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
         <v>522690</v>
       </c>
-      <c r="M17" s="4">
+      <c r="S17" s="4">
         <v>541868</v>
       </c>
-      <c r="N17" s="4">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
         <v>19563</v>
       </c>
-      <c r="O17" s="4">
+      <c r="W17" s="4">
         <v>21073</v>
       </c>
-      <c r="P17" s="4">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4">
         <v>11385</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="AA17" s="4">
         <v>11687</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5769,38 +5998,48 @@
       <c r="G18" s="4">
         <v>27256</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>762</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>728</v>
       </c>
-      <c r="J18" s="4">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>597</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>475</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
         <v>520122</v>
       </c>
-      <c r="M18" s="4">
+      <c r="S18" s="4">
         <v>520161</v>
       </c>
-      <c r="N18" s="4">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
         <v>16268</v>
       </c>
-      <c r="O18" s="4">
+      <c r="W18" s="4">
         <v>15109</v>
       </c>
-      <c r="P18" s="4">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4">
         <v>8438</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="AA18" s="4">
         <v>8186</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5819,38 +6058,48 @@
       <c r="G19" s="4">
         <v>36600</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>965</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <v>706</v>
       </c>
-      <c r="J19" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>690</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>625</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
         <v>300900</v>
       </c>
-      <c r="M19" s="4">
+      <c r="S19" s="4">
         <v>285700</v>
       </c>
-      <c r="N19" s="4">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4">
         <v>9386</v>
       </c>
-      <c r="O19" s="4">
+      <c r="W19" s="4">
         <v>8772</v>
       </c>
-      <c r="P19" s="4">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4">
         <v>5118</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="AA19" s="4">
         <v>4799</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5869,38 +6118,48 @@
       <c r="G20" s="4">
         <v>82483</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>2022</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>1773</v>
       </c>
-      <c r="J20" s="4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>1451</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>1387</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
         <v>668029</v>
       </c>
-      <c r="M20" s="4">
+      <c r="S20" s="4">
         <v>669792</v>
       </c>
-      <c r="N20" s="4">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
         <v>24478</v>
       </c>
-      <c r="O20" s="4">
+      <c r="W20" s="4">
         <v>23183</v>
       </c>
-      <c r="P20" s="4">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4">
         <v>14292</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="AA20" s="4">
         <v>13819</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5919,38 +6178,48 @@
       <c r="G21" s="4">
         <v>312853</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>17578</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <v>15573</v>
       </c>
-      <c r="J21" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>7709</v>
       </c>
-      <c r="K21" s="4">
+      <c r="O21" s="4">
         <v>7559</v>
       </c>
-      <c r="L21" s="4">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
         <v>646107</v>
       </c>
-      <c r="M21" s="4">
+      <c r="S21" s="4">
         <v>633385</v>
       </c>
-      <c r="N21" s="4">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
         <v>29948</v>
       </c>
-      <c r="O21" s="4">
+      <c r="W21" s="4">
         <v>28182</v>
       </c>
-      <c r="P21" s="4">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
         <v>14593</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="AA21" s="4">
         <v>15833</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5969,38 +6238,48 @@
       <c r="G22" s="4">
         <v>45958</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>1067</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>1073</v>
       </c>
-      <c r="J22" s="4">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>604</v>
       </c>
-      <c r="K22" s="4">
+      <c r="O22" s="4">
         <v>611</v>
       </c>
-      <c r="L22" s="4">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
         <v>330600</v>
       </c>
-      <c r="M22" s="4">
+      <c r="S22" s="4">
         <v>334130</v>
       </c>
-      <c r="N22" s="4">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
         <v>10448</v>
       </c>
-      <c r="O22" s="4">
+      <c r="W22" s="4">
         <v>10643</v>
       </c>
-      <c r="P22" s="4">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4">
         <v>7305</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="AA22" s="4">
         <v>7303</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -6019,38 +6298,48 @@
       <c r="G23" s="4">
         <v>42774</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>2128</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>2091</v>
       </c>
-      <c r="J23" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
         <v>1781</v>
       </c>
-      <c r="K23" s="4">
+      <c r="O23" s="4">
         <v>1572</v>
       </c>
-      <c r="L23" s="4">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
         <v>517646</v>
       </c>
-      <c r="M23" s="4">
+      <c r="S23" s="4">
         <v>514094</v>
       </c>
-      <c r="N23" s="4">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
         <v>17886</v>
       </c>
-      <c r="O23" s="4">
+      <c r="W23" s="4">
         <v>17401</v>
       </c>
-      <c r="P23" s="4">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
         <v>9993</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="AA23" s="4">
         <v>9167</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6069,38 +6358,48 @@
       <c r="G24" s="4">
         <v>33747</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>603</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>544</v>
       </c>
-      <c r="J24" s="4">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>434</v>
       </c>
-      <c r="K24" s="4">
+      <c r="O24" s="4">
         <v>426</v>
       </c>
-      <c r="L24" s="4">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
         <v>274123</v>
       </c>
-      <c r="M24" s="4">
+      <c r="S24" s="4">
         <v>294880</v>
       </c>
-      <c r="N24" s="4">
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4">
         <v>8362</v>
       </c>
-      <c r="O24" s="4">
+      <c r="W24" s="4">
         <v>8451</v>
       </c>
-      <c r="P24" s="4">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4">
         <v>6173</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="AA24" s="4">
         <v>6354</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -6119,38 +6418,48 @@
       <c r="G25" s="4">
         <v>48753</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>1476</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>1303</v>
       </c>
-      <c r="J25" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>1009</v>
       </c>
-      <c r="K25" s="4">
+      <c r="O25" s="4">
         <v>821</v>
       </c>
-      <c r="L25" s="4">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
         <v>451569</v>
       </c>
-      <c r="M25" s="4">
+      <c r="S25" s="4">
         <v>451800</v>
       </c>
-      <c r="N25" s="4">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
         <v>16188</v>
       </c>
-      <c r="O25" s="4">
+      <c r="W25" s="4">
         <v>16881</v>
       </c>
-      <c r="P25" s="4">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
         <v>9098</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="AA25" s="4">
         <v>9138</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -6169,38 +6478,48 @@
       <c r="G26" s="4">
         <v>1145639</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>43396</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>38655</v>
       </c>
-      <c r="J26" s="4">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
         <v>24981</v>
       </c>
-      <c r="K26" s="4">
+      <c r="O26" s="4">
         <v>23268</v>
       </c>
-      <c r="L26" s="4">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
         <v>5033634</v>
       </c>
-      <c r="M26" s="4">
+      <c r="S26" s="4">
         <v>5065857</v>
       </c>
-      <c r="N26" s="4">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4">
         <v>178909</v>
       </c>
-      <c r="O26" s="4">
+      <c r="W26" s="4">
         <v>175176</v>
       </c>
-      <c r="P26" s="4">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
         <v>100407</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="AA26" s="4">
         <v>98675</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6219,38 +6538,48 @@
       <c r="G27" s="4">
         <v>86500</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>2338</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <v>2263</v>
       </c>
-      <c r="J27" s="4">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <v>1667</v>
       </c>
-      <c r="K27" s="4">
+      <c r="O27" s="4">
         <v>1403</v>
       </c>
-      <c r="L27" s="4">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
         <v>264000</v>
       </c>
-      <c r="M27" s="4">
+      <c r="S27" s="4">
         <v>287600</v>
       </c>
-      <c r="N27" s="4">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4">
         <v>5611</v>
       </c>
-      <c r="O27" s="4">
+      <c r="W27" s="4">
         <v>5297</v>
       </c>
-      <c r="P27" s="4">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4">
         <v>4239</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="AA27" s="4">
         <v>4124</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6269,38 +6598,48 @@
       <c r="G28" s="4">
         <v>192780</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>6443</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>5993</v>
       </c>
-      <c r="J28" s="4">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
         <v>5502</v>
       </c>
-      <c r="K28" s="4">
+      <c r="O28" s="4">
         <v>4567</v>
       </c>
-      <c r="L28" s="4">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
         <v>504389</v>
       </c>
-      <c r="M28" s="4">
+      <c r="S28" s="4">
         <v>540352</v>
       </c>
-      <c r="N28" s="4">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4">
         <v>11008</v>
       </c>
-      <c r="O28" s="4">
+      <c r="W28" s="4">
         <v>10299</v>
       </c>
-      <c r="P28" s="4">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4">
         <v>8140</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="AA28" s="4">
         <v>7619</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -6319,38 +6658,48 @@
       <c r="G29" s="4">
         <v>41222</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>1360</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <v>1258</v>
       </c>
-      <c r="J29" s="4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>1124</v>
       </c>
-      <c r="K29" s="4">
+      <c r="O29" s="4">
         <v>977</v>
       </c>
-      <c r="L29" s="4">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
         <v>184110</v>
       </c>
-      <c r="M29" s="4">
+      <c r="S29" s="4">
         <v>192438</v>
       </c>
-      <c r="N29" s="4">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4">
         <v>4736</v>
       </c>
-      <c r="O29" s="4">
+      <c r="W29" s="4">
         <v>4507</v>
       </c>
-      <c r="P29" s="4">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4">
         <v>3444</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="AA29" s="4">
         <v>3235</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -6369,38 +6718,48 @@
       <c r="G30" s="4">
         <v>320502</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>10141</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>9514</v>
       </c>
-      <c r="J30" s="4">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>8293</v>
       </c>
-      <c r="K30" s="4">
+      <c r="O30" s="4">
         <v>6947</v>
       </c>
-      <c r="L30" s="4">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4">
         <v>952499</v>
       </c>
-      <c r="M30" s="4">
+      <c r="S30" s="4">
         <v>1020390</v>
       </c>
-      <c r="N30" s="4">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
         <v>21355</v>
       </c>
-      <c r="O30" s="4">
+      <c r="W30" s="4">
         <v>20103</v>
       </c>
-      <c r="P30" s="4">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4">
         <v>15823</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="AA30" s="4">
         <v>14978</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -6419,38 +6778,48 @@
       <c r="G31" s="4">
         <v>132650</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>4791</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <v>4356</v>
       </c>
-      <c r="J31" s="4">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>3650</v>
       </c>
-      <c r="K31" s="4">
+      <c r="O31" s="4">
         <v>2982</v>
       </c>
-      <c r="L31" s="4">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
         <v>1067562</v>
       </c>
-      <c r="M31" s="4">
+      <c r="S31" s="4">
         <v>1024039</v>
       </c>
-      <c r="N31" s="4">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4">
         <v>47279</v>
       </c>
-      <c r="O31" s="4">
+      <c r="W31" s="4">
         <v>45099</v>
       </c>
-      <c r="P31" s="4">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4">
         <v>28618</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="AA31" s="4">
         <v>26138</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -6469,38 +6838,48 @@
       <c r="G32" s="4">
         <v>122926</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>5594</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>5122</v>
       </c>
-      <c r="J32" s="4">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
         <v>4628</v>
       </c>
-      <c r="K32" s="4">
+      <c r="O32" s="4">
         <v>3726</v>
       </c>
-      <c r="L32" s="4">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4">
         <v>854756</v>
       </c>
-      <c r="M32" s="4">
+      <c r="S32" s="4">
         <v>897131</v>
       </c>
-      <c r="N32" s="4">
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
         <v>38471</v>
       </c>
-      <c r="O32" s="4">
+      <c r="W32" s="4">
         <v>36376</v>
       </c>
-      <c r="P32" s="4">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4">
         <v>26507</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="AA32" s="4">
         <v>24765</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -6519,38 +6898,48 @@
       <c r="G33" s="4">
         <v>33539</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>1275</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>1267</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>1136</v>
       </c>
-      <c r="K33" s="4">
+      <c r="O33" s="4">
         <v>1000</v>
       </c>
-      <c r="L33" s="4">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4">
         <v>720960</v>
       </c>
-      <c r="M33" s="4">
+      <c r="S33" s="4">
         <v>788814</v>
       </c>
-      <c r="N33" s="4">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4">
         <v>32968</v>
       </c>
-      <c r="O33" s="4">
+      <c r="W33" s="4">
         <v>31545</v>
       </c>
-      <c r="P33" s="4">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4">
         <v>25026</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="AA33" s="4">
         <v>22838</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -6569,38 +6958,48 @@
       <c r="G34" s="4">
         <v>67742</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>2499</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>2441</v>
       </c>
-      <c r="J34" s="4">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
         <v>2285</v>
       </c>
-      <c r="K34" s="4">
+      <c r="O34" s="4">
         <v>1800</v>
       </c>
-      <c r="L34" s="4">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4">
         <v>1630916</v>
       </c>
-      <c r="M34" s="4">
+      <c r="S34" s="4">
         <v>1605478</v>
       </c>
-      <c r="N34" s="4">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4">
         <v>84354</v>
       </c>
-      <c r="O34" s="4">
+      <c r="W34" s="4">
         <v>79785</v>
       </c>
-      <c r="P34" s="4">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4">
         <v>53526</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="AA34" s="4">
         <v>50201</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6619,38 +7018,48 @@
       <c r="G35" s="4">
         <v>57752</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>2018</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <v>1985</v>
       </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>1742</v>
       </c>
-      <c r="K35" s="4">
+      <c r="O35" s="4">
         <v>1433</v>
       </c>
-      <c r="L35" s="4">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4">
         <v>1709323</v>
       </c>
-      <c r="M35" s="4">
+      <c r="S35" s="4">
         <v>1783112</v>
       </c>
-      <c r="N35" s="4">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4">
         <v>90413</v>
       </c>
-      <c r="O35" s="4">
+      <c r="W35" s="4">
         <v>86584</v>
       </c>
-      <c r="P35" s="4">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4">
         <v>57955</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="AA35" s="4">
         <v>54898</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -6669,38 +7078,48 @@
       <c r="G36" s="4">
         <v>193286</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>9288</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>7951</v>
       </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
         <v>5848</v>
       </c>
-      <c r="K36" s="4">
+      <c r="O36" s="4">
         <v>4390</v>
       </c>
-      <c r="L36" s="4">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4">
         <v>1354668</v>
       </c>
-      <c r="M36" s="4">
+      <c r="S36" s="4">
         <v>1215570</v>
       </c>
-      <c r="N36" s="4">
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4">
         <v>69086</v>
       </c>
-      <c r="O36" s="4">
+      <c r="W36" s="4">
         <v>67007</v>
       </c>
-      <c r="P36" s="4">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4">
         <v>37996</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="AA36" s="4">
         <v>33440</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -6719,38 +7138,48 @@
       <c r="G37" s="4">
         <v>117726</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>4238</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <v>4273</v>
       </c>
-      <c r="J37" s="4">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>3264</v>
       </c>
-      <c r="K37" s="4">
+      <c r="O37" s="4">
         <v>3154</v>
       </c>
-      <c r="L37" s="4">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4">
         <v>1178787</v>
       </c>
-      <c r="M37" s="4">
+      <c r="S37" s="4">
         <v>1176895</v>
       </c>
-      <c r="N37" s="4">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4">
         <v>53413</v>
       </c>
-      <c r="O37" s="4">
+      <c r="W37" s="4">
         <v>50788</v>
       </c>
-      <c r="P37" s="4">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4">
         <v>32719</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="AA37" s="4">
         <v>32197</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -6769,38 +7198,48 @@
       <c r="G38" s="4">
         <v>46461</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>1716</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>1532</v>
       </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>1721</v>
       </c>
-      <c r="K38" s="4">
+      <c r="O38" s="4">
         <v>1252</v>
       </c>
-      <c r="L38" s="4">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4">
         <v>608021</v>
       </c>
-      <c r="M38" s="4">
+      <c r="S38" s="4">
         <v>697600</v>
       </c>
-      <c r="N38" s="4">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
         <v>30991</v>
       </c>
-      <c r="O38" s="4">
+      <c r="W38" s="4">
         <v>29581</v>
       </c>
-      <c r="P38" s="4">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4">
         <v>23733</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="AA38" s="4">
         <v>22304</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -6819,38 +7258,48 @@
       <c r="G39" s="4">
         <v>48126</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>1906</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <v>1955</v>
       </c>
-      <c r="J39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <v>1718</v>
       </c>
-      <c r="K39" s="4">
+      <c r="O39" s="4">
         <v>1533</v>
       </c>
-      <c r="L39" s="4">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4">
         <v>735768</v>
       </c>
-      <c r="M39" s="4">
+      <c r="S39" s="4">
         <v>838643</v>
       </c>
-      <c r="N39" s="4">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4">
         <v>34007</v>
       </c>
-      <c r="O39" s="4">
+      <c r="W39" s="4">
         <v>33055</v>
       </c>
-      <c r="P39" s="4">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4">
         <v>23461</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="AA39" s="4">
         <v>22286</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -6869,38 +7318,48 @@
       <c r="G40" s="4">
         <v>122166</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>3944</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>3867</v>
       </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
         <v>3146</v>
       </c>
-      <c r="K40" s="4">
+      <c r="O40" s="4">
         <v>2659</v>
       </c>
-      <c r="L40" s="4">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4">
         <v>1321360</v>
       </c>
-      <c r="M40" s="4">
+      <c r="S40" s="4">
         <v>1331944</v>
       </c>
-      <c r="N40" s="4">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4">
         <v>62943</v>
       </c>
-      <c r="O40" s="4">
+      <c r="W40" s="4">
         <v>58967</v>
       </c>
-      <c r="P40" s="4">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4">
         <v>39748</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="AA40" s="4">
         <v>36844</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -6919,38 +7378,48 @@
       <c r="G41" s="4">
         <v>55284</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>3112</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <v>3000</v>
       </c>
-      <c r="J41" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>2396</v>
       </c>
-      <c r="K41" s="4">
+      <c r="O41" s="4">
         <v>2024</v>
       </c>
-      <c r="L41" s="4">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4">
         <v>708570</v>
       </c>
-      <c r="M41" s="4">
+      <c r="S41" s="4">
         <v>882957</v>
       </c>
-      <c r="N41" s="4">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4">
         <v>35420</v>
       </c>
-      <c r="O41" s="4">
+      <c r="W41" s="4">
         <v>33872</v>
       </c>
-      <c r="P41" s="4">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4">
         <v>26141</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="AA41" s="4">
         <v>23611</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -6969,38 +7438,48 @@
       <c r="G42" s="4">
         <v>636984</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>25758</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <v>24904</v>
       </c>
-      <c r="J42" s="4">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
         <v>21838</v>
       </c>
-      <c r="K42" s="4">
+      <c r="O42" s="4">
         <v>17784</v>
       </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0</v>
+      </c>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -7019,38 +7498,48 @@
       <c r="G43" s="4">
         <v>71727</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>3403</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <v>3080</v>
       </c>
-      <c r="J43" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
         <v>2700</v>
       </c>
-      <c r="K43" s="4">
+      <c r="O43" s="4">
         <v>2131</v>
       </c>
-      <c r="L43" s="4">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4">
         <v>870808</v>
       </c>
-      <c r="M43" s="4">
+      <c r="S43" s="4">
         <v>934705</v>
       </c>
-      <c r="N43" s="4">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4">
         <v>46063</v>
       </c>
-      <c r="O43" s="4">
+      <c r="W43" s="4">
         <v>43571</v>
       </c>
-      <c r="P43" s="4">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4">
         <v>31615</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="AA43" s="4">
         <v>29391</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -7069,38 +7558,48 @@
       <c r="G44" s="4">
         <v>48799</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
         <v>1793</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <v>1707</v>
       </c>
-      <c r="J44" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
         <v>1821</v>
       </c>
-      <c r="K44" s="4">
+      <c r="O44" s="4">
         <v>1452</v>
       </c>
-      <c r="L44" s="4">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4">
         <v>702733</v>
       </c>
-      <c r="M44" s="4">
+      <c r="S44" s="4">
         <v>769315</v>
       </c>
-      <c r="N44" s="4">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4">
         <v>29719</v>
       </c>
-      <c r="O44" s="4">
+      <c r="W44" s="4">
         <v>28219</v>
       </c>
-      <c r="P44" s="4">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4">
         <v>21756</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="AA44" s="4">
         <v>19323</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7119,38 +7618,48 @@
       <c r="G45" s="4">
         <v>15581</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
         <v>645</v>
       </c>
-      <c r="I45" s="4">
+      <c r="K45" s="4">
         <v>632</v>
       </c>
-      <c r="J45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4">
         <v>593</v>
       </c>
-      <c r="K45" s="4">
+      <c r="O45" s="4">
         <v>462</v>
       </c>
-      <c r="L45" s="4">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4">
         <v>191912</v>
       </c>
-      <c r="M45" s="4">
+      <c r="S45" s="4">
         <v>200804</v>
       </c>
-      <c r="N45" s="4">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4">
         <v>8987</v>
       </c>
-      <c r="O45" s="4">
+      <c r="W45" s="4">
         <v>8586</v>
       </c>
-      <c r="P45" s="4">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4">
         <v>6659</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="AA45" s="4">
         <v>6119</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -7169,38 +7678,48 @@
       <c r="G46" s="4">
         <v>131745</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>4998</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <v>4682</v>
       </c>
-      <c r="J46" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
         <v>4184</v>
       </c>
-      <c r="K46" s="4">
+      <c r="O46" s="4">
         <v>3759</v>
       </c>
-      <c r="L46" s="4">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4">
         <v>1120682</v>
       </c>
-      <c r="M46" s="4">
+      <c r="S46" s="4">
         <v>1116262</v>
       </c>
-      <c r="N46" s="4">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
         <v>54162</v>
       </c>
-      <c r="O46" s="4">
+      <c r="W46" s="4">
         <v>52594</v>
       </c>
-      <c r="P46" s="4">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4">
         <v>35123</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="AA46" s="4">
         <v>34038</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -7219,38 +7738,48 @@
       <c r="G47" s="4">
         <v>74312</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>3870</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <v>3616</v>
       </c>
-      <c r="J47" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
         <v>3012</v>
       </c>
-      <c r="K47" s="4">
+      <c r="O47" s="4">
         <v>2501</v>
       </c>
-      <c r="L47" s="4">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4">
         <v>833189</v>
       </c>
-      <c r="M47" s="4">
+      <c r="S47" s="4">
         <v>861077</v>
       </c>
-      <c r="N47" s="4">
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4">
         <v>45208</v>
       </c>
-      <c r="O47" s="4">
+      <c r="W47" s="4">
         <v>42491</v>
       </c>
-      <c r="P47" s="4">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4">
         <v>28491</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="AA47" s="4">
         <v>26385</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -7269,38 +7798,48 @@
       <c r="G48" s="4">
         <v>98655</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>4538</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <v>4453</v>
       </c>
-      <c r="J48" s="4">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>4137</v>
       </c>
-      <c r="K48" s="4">
+      <c r="O48" s="4">
         <v>3446</v>
       </c>
-      <c r="L48" s="4">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4">
         <v>1587344</v>
       </c>
-      <c r="M48" s="4">
+      <c r="S48" s="4">
         <v>1717059</v>
       </c>
-      <c r="N48" s="4">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4">
         <v>99365</v>
       </c>
-      <c r="O48" s="4">
+      <c r="W48" s="4">
         <v>96191</v>
       </c>
-      <c r="P48" s="4">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4">
         <v>66202</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="AA48" s="4">
         <v>61701</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -7319,38 +7858,48 @@
       <c r="G49" s="4">
         <v>169807</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
         <v>6742</v>
       </c>
-      <c r="I49" s="4">
+      <c r="K49" s="4">
         <v>6254</v>
       </c>
-      <c r="J49" s="4">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
         <v>4543</v>
       </c>
-      <c r="K49" s="4">
+      <c r="O49" s="4">
         <v>3675</v>
       </c>
-      <c r="L49" s="4">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4">
         <v>1512851</v>
       </c>
-      <c r="M49" s="4">
+      <c r="S49" s="4">
         <v>1501267</v>
       </c>
-      <c r="N49" s="4">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4">
         <v>62843</v>
       </c>
-      <c r="O49" s="4">
+      <c r="W49" s="4">
         <v>59201</v>
       </c>
-      <c r="P49" s="4">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4">
         <v>33286</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="AA49" s="4">
         <v>30994</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -7369,38 +7918,48 @@
       <c r="G50" s="4">
         <v>49039</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
         <v>1992</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <v>1854</v>
       </c>
-      <c r="J50" s="4">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
         <v>1646</v>
       </c>
-      <c r="K50" s="4">
+      <c r="O50" s="4">
         <v>1375</v>
       </c>
-      <c r="L50" s="4">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4">
         <v>608348</v>
       </c>
-      <c r="M50" s="4">
+      <c r="S50" s="4">
         <v>644711</v>
       </c>
-      <c r="N50" s="4">
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4">
         <v>25812</v>
       </c>
-      <c r="O50" s="4">
+      <c r="W50" s="4">
         <v>24580</v>
       </c>
-      <c r="P50" s="4">
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4">
         <v>17238</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="AA50" s="4">
         <v>15708</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -7419,38 +7978,48 @@
       <c r="G51" s="4">
         <v>66316</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
         <v>3450</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <v>3226</v>
       </c>
-      <c r="J51" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
         <v>2723</v>
       </c>
-      <c r="K51" s="4">
+      <c r="O51" s="4">
         <v>2342</v>
       </c>
-      <c r="L51" s="4">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4">
         <v>1146736</v>
       </c>
-      <c r="M51" s="4">
+      <c r="S51" s="4">
         <v>1161841</v>
       </c>
-      <c r="N51" s="4">
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4">
         <v>51450</v>
       </c>
-      <c r="O51" s="4">
+      <c r="W51" s="4">
         <v>48992</v>
       </c>
-      <c r="P51" s="4">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4">
         <v>30474</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="AA51" s="4">
         <v>27699</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -7469,38 +8038,48 @@
       <c r="G52" s="4">
         <v>88845</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <v>5846</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <v>5475</v>
       </c>
-      <c r="J52" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4">
         <v>5333</v>
       </c>
-      <c r="K52" s="4">
+      <c r="O52" s="4">
         <v>4454</v>
       </c>
-      <c r="L52" s="4">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4">
         <v>1614101</v>
       </c>
-      <c r="M52" s="4">
+      <c r="S52" s="4">
         <v>1679983</v>
       </c>
-      <c r="N52" s="4">
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4">
         <v>91250</v>
       </c>
-      <c r="O52" s="4">
+      <c r="W52" s="4">
         <v>87990</v>
       </c>
-      <c r="P52" s="4">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4">
         <v>59439</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="AA52" s="4">
         <v>55803</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -7519,38 +8098,48 @@
       <c r="G53" s="4">
         <v>194588</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>7190</v>
       </c>
-      <c r="I53" s="4">
+      <c r="K53" s="4">
         <v>6667</v>
       </c>
-      <c r="J53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4">
         <v>7625</v>
       </c>
-      <c r="K53" s="4">
+      <c r="O53" s="4">
         <v>5708</v>
       </c>
-      <c r="L53" s="4">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4">
         <v>406286</v>
       </c>
-      <c r="M53" s="4">
+      <c r="S53" s="4">
         <v>399455</v>
       </c>
-      <c r="N53" s="4">
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4">
         <v>13705</v>
       </c>
-      <c r="O53" s="4">
+      <c r="W53" s="4">
         <v>12913</v>
       </c>
-      <c r="P53" s="4">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4">
         <v>11238</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="AA53" s="4">
         <v>10700</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -7569,38 +8158,48 @@
       <c r="G54" s="4">
         <v>698100</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>22530</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <v>21603</v>
       </c>
-      <c r="J54" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>25082</v>
       </c>
-      <c r="K54" s="4">
+      <c r="O54" s="4">
         <v>19227</v>
       </c>
-      <c r="L54" s="4">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
-      <c r="N54" s="4">
-        <v>0</v>
-      </c>
-      <c r="O54" s="4">
-        <v>0</v>
-      </c>
-      <c r="P54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4">
+        <v>0</v>
+      </c>
+      <c r="W54" s="4">
+        <v>0</v>
+      </c>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -7619,38 +8218,48 @@
       <c r="G55" s="4">
         <v>251662</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>11199</v>
       </c>
-      <c r="I55" s="4">
+      <c r="K55" s="4">
         <v>10812</v>
       </c>
-      <c r="J55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
         <v>7806</v>
       </c>
-      <c r="K55" s="4">
+      <c r="O55" s="4">
         <v>6496</v>
       </c>
-      <c r="L55" s="4">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4">
         <v>1306666</v>
       </c>
-      <c r="M55" s="4">
+      <c r="S55" s="4">
         <v>1319222</v>
       </c>
-      <c r="N55" s="4">
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4">
         <v>65082</v>
       </c>
-      <c r="O55" s="4">
+      <c r="W55" s="4">
         <v>62275</v>
       </c>
-      <c r="P55" s="4">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4">
         <v>42753</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="AA55" s="4">
         <v>39937</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -7669,38 +8278,48 @@
       <c r="G56" s="4">
         <v>67471</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
         <v>3642</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <v>3373</v>
       </c>
-      <c r="J56" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
         <v>2758</v>
       </c>
-      <c r="K56" s="4">
+      <c r="O56" s="4">
         <v>2400</v>
       </c>
-      <c r="L56" s="4">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4">
         <v>844496</v>
       </c>
-      <c r="M56" s="4">
+      <c r="S56" s="4">
         <v>865322</v>
       </c>
-      <c r="N56" s="4">
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4">
         <v>46965</v>
       </c>
-      <c r="O56" s="4">
+      <c r="W56" s="4">
         <v>45143</v>
       </c>
-      <c r="P56" s="4">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4">
         <v>28826</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="AA56" s="4">
         <v>27027</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -7719,38 +8338,48 @@
       <c r="G57" s="4">
         <v>83839</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>2362</v>
       </c>
-      <c r="I57" s="4">
+      <c r="K57" s="4">
         <v>2148</v>
       </c>
-      <c r="J57" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
         <v>1941</v>
       </c>
-      <c r="K57" s="4">
+      <c r="O57" s="4">
         <v>1715</v>
       </c>
-      <c r="L57" s="4">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4">
         <v>877622</v>
       </c>
-      <c r="M57" s="4">
+      <c r="S57" s="4">
         <v>878540</v>
       </c>
-      <c r="N57" s="4">
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4">
         <v>41484</v>
       </c>
-      <c r="O57" s="4">
+      <c r="W57" s="4">
         <v>39402</v>
       </c>
-      <c r="P57" s="4">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4">
         <v>29185</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="AA57" s="4">
         <v>26566</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -7769,38 +8398,48 @@
       <c r="G58" s="4">
         <v>122233</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
         <v>5968</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <v>5680</v>
       </c>
-      <c r="J58" s="4">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
         <v>4050</v>
       </c>
-      <c r="K58" s="4">
+      <c r="O58" s="4">
         <v>3204</v>
       </c>
-      <c r="L58" s="4">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4">
         <v>788650</v>
       </c>
-      <c r="M58" s="4">
+      <c r="S58" s="4">
         <v>747599</v>
       </c>
-      <c r="N58" s="4">
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4">
         <v>36377</v>
       </c>
-      <c r="O58" s="4">
+      <c r="W58" s="4">
         <v>34227</v>
       </c>
-      <c r="P58" s="4">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4">
         <v>19671</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="AA58" s="4">
         <v>17314</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -7819,38 +8458,48 @@
       <c r="G59" s="4">
         <v>26080</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>1197</v>
       </c>
-      <c r="I59" s="4">
+      <c r="K59" s="4">
         <v>1031</v>
       </c>
-      <c r="J59" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>736</v>
       </c>
-      <c r="K59" s="4">
+      <c r="O59" s="4">
         <v>605</v>
       </c>
-      <c r="L59" s="4">
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="4">
-        <v>0</v>
-      </c>
-      <c r="O59" s="4">
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>0</v>
+      </c>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4">
+        <v>0</v>
+      </c>
+      <c r="W59" s="4">
+        <v>0</v>
+      </c>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -7869,38 +8518,48 @@
       <c r="G60" s="4">
         <v>116041</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
         <v>5270</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <v>5002</v>
       </c>
-      <c r="J60" s="4">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4">
         <v>4281</v>
       </c>
-      <c r="K60" s="4">
+      <c r="O60" s="4">
         <v>3705</v>
       </c>
-      <c r="L60" s="4">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4">
         <v>1629235</v>
       </c>
-      <c r="M60" s="4">
+      <c r="S60" s="4">
         <v>1645526</v>
       </c>
-      <c r="N60" s="4">
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4">
         <v>82558</v>
       </c>
-      <c r="O60" s="4">
+      <c r="W60" s="4">
         <v>80941</v>
       </c>
-      <c r="P60" s="4">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4">
         <v>51375</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="AA60" s="4">
         <v>49143</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -7919,38 +8578,48 @@
       <c r="G61" s="4">
         <v>81133</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
         <v>2204</v>
       </c>
-      <c r="I61" s="4">
+      <c r="K61" s="4">
         <v>2128</v>
       </c>
-      <c r="J61" s="4">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
         <v>1952</v>
       </c>
-      <c r="K61" s="4">
+      <c r="O61" s="4">
         <v>1764</v>
       </c>
-      <c r="L61" s="4">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4">
         <v>1013290</v>
       </c>
-      <c r="M61" s="4">
+      <c r="S61" s="4">
         <v>1055166</v>
       </c>
-      <c r="N61" s="4">
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4">
         <v>42564</v>
       </c>
-      <c r="O61" s="4">
+      <c r="W61" s="4">
         <v>40866</v>
       </c>
-      <c r="P61" s="4">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4">
         <v>31230</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="AA61" s="4">
         <v>28204</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -7969,38 +8638,48 @@
       <c r="G62" s="4">
         <v>85668</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
         <v>4095</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <v>3920</v>
       </c>
-      <c r="J62" s="4">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
         <v>3140</v>
       </c>
-      <c r="K62" s="4">
+      <c r="O62" s="4">
         <v>2601</v>
       </c>
-      <c r="L62" s="4">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4">
         <v>816547</v>
       </c>
-      <c r="M62" s="4">
+      <c r="S62" s="4">
         <v>830860</v>
       </c>
-      <c r="N62" s="4">
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4">
         <v>39778</v>
       </c>
-      <c r="O62" s="4">
+      <c r="W62" s="4">
         <v>37632</v>
       </c>
-      <c r="P62" s="4">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4">
         <v>27055</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="AA62" s="4">
         <v>24161</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -8019,38 +8698,48 @@
       <c r="G63" s="4">
         <v>80154</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
         <v>4351</v>
       </c>
-      <c r="I63" s="4">
+      <c r="K63" s="4">
         <v>4266</v>
       </c>
-      <c r="J63" s="4">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <v>3217</v>
       </c>
-      <c r="K63" s="4">
+      <c r="O63" s="4">
         <v>2750</v>
       </c>
-      <c r="L63" s="4">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4">
         <v>1293457</v>
       </c>
-      <c r="M63" s="4">
+      <c r="S63" s="4">
         <v>1387185</v>
       </c>
-      <c r="N63" s="4">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4">
         <v>70064</v>
       </c>
-      <c r="O63" s="4">
+      <c r="W63" s="4">
         <v>66306</v>
       </c>
-      <c r="P63" s="4">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4">
         <v>36974</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="AA63" s="4">
         <v>36260</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -8069,38 +8758,48 @@
       <c r="G64" s="4">
         <v>193255</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <v>7562</v>
       </c>
-      <c r="I64" s="4">
+      <c r="K64" s="4">
         <v>6943</v>
       </c>
-      <c r="J64" s="4">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <v>5896</v>
       </c>
-      <c r="K64" s="4">
+      <c r="O64" s="4">
         <v>4750</v>
       </c>
-      <c r="L64" s="4">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4">
         <v>1554177</v>
       </c>
-      <c r="M64" s="4">
+      <c r="S64" s="4">
         <v>1207231</v>
       </c>
-      <c r="N64" s="4">
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4">
         <v>62191</v>
       </c>
-      <c r="O64" s="4">
+      <c r="W64" s="4">
         <v>59002</v>
       </c>
-      <c r="P64" s="4">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4">
         <v>34319</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="AA64" s="4">
         <v>31908</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -8119,38 +8818,48 @@
       <c r="G65" s="4">
         <v>104283</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>2752</v>
       </c>
-      <c r="I65" s="4">
+      <c r="K65" s="4">
         <v>2733</v>
       </c>
-      <c r="J65" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>2471</v>
       </c>
-      <c r="K65" s="4">
+      <c r="O65" s="4">
         <v>1857</v>
       </c>
-      <c r="L65" s="4">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4">
         <v>1309762</v>
       </c>
-      <c r="M65" s="4">
+      <c r="S65" s="4">
         <v>1294971</v>
       </c>
-      <c r="N65" s="4">
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4">
         <v>56638</v>
       </c>
-      <c r="O65" s="4">
+      <c r="W65" s="4">
         <v>54117</v>
       </c>
-      <c r="P65" s="4">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4">
         <v>32078</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="AA65" s="4">
         <v>29013</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -8169,38 +8878,48 @@
       <c r="G66" s="4">
         <v>49594</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>1933</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <v>1944</v>
       </c>
-      <c r="J66" s="4">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>1553</v>
       </c>
-      <c r="K66" s="4">
+      <c r="O66" s="4">
         <v>1286</v>
       </c>
-      <c r="L66" s="4">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0</v>
-      </c>
-      <c r="O66" s="4">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4">
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4">
+        <v>0</v>
+      </c>
+      <c r="W66" s="4">
+        <v>0</v>
+      </c>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -8219,38 +8938,48 @@
       <c r="G67" s="4">
         <v>251282</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>7300</v>
       </c>
-      <c r="I67" s="4">
+      <c r="K67" s="4">
         <v>7075</v>
       </c>
-      <c r="J67" s="4">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
         <v>6038</v>
       </c>
-      <c r="K67" s="4">
+      <c r="O67" s="4">
         <v>4431</v>
       </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
-      <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0</v>
+      </c>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -8269,38 +8998,48 @@
       <c r="G68" s="4">
         <v>139481</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <v>4482</v>
       </c>
-      <c r="I68" s="4">
+      <c r="K68" s="4">
         <v>4194</v>
       </c>
-      <c r="J68" s="4">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>3049</v>
       </c>
-      <c r="K68" s="4">
+      <c r="O68" s="4">
         <v>2457</v>
       </c>
-      <c r="L68" s="4">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4">
         <v>1246918</v>
       </c>
-      <c r="M68" s="4">
+      <c r="S68" s="4">
         <v>1231251</v>
       </c>
-      <c r="N68" s="4">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4">
         <v>52753</v>
       </c>
-      <c r="O68" s="4">
+      <c r="W68" s="4">
         <v>49734</v>
       </c>
-      <c r="P68" s="4">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4">
         <v>28866</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="AA68" s="4">
         <v>26284</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -8319,38 +9058,48 @@
       <c r="G69" s="4">
         <v>84956</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>3591</v>
       </c>
-      <c r="I69" s="4">
+      <c r="K69" s="4">
         <v>3538</v>
       </c>
-      <c r="J69" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>2653</v>
       </c>
-      <c r="K69" s="4">
+      <c r="O69" s="4">
         <v>2311</v>
       </c>
-      <c r="L69" s="4">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4">
         <v>544235</v>
       </c>
-      <c r="M69" s="4">
+      <c r="S69" s="4">
         <v>632088</v>
       </c>
-      <c r="N69" s="4">
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4">
         <v>19613</v>
       </c>
-      <c r="O69" s="4">
+      <c r="W69" s="4">
         <v>20220</v>
       </c>
-      <c r="P69" s="4">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4">
         <v>14550</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="AA69" s="4">
         <v>14568</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -8369,38 +9118,48 @@
       <c r="G70" s="4">
         <v>5079288</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>201044</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <v>190689</v>
       </c>
-      <c r="J70" s="4">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>168352</v>
       </c>
-      <c r="K70" s="4">
+      <c r="O70" s="4">
         <v>136601</v>
       </c>
-      <c r="L70" s="4">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4">
         <v>35710736</v>
       </c>
-      <c r="M70" s="4">
+      <c r="S70" s="4">
         <v>36326623</v>
       </c>
-      <c r="N70" s="4">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4">
         <v>1723976</v>
       </c>
-      <c r="O70" s="4">
+      <c r="W70" s="4">
         <v>1647852</v>
       </c>
-      <c r="P70" s="4">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4">
         <v>1093833</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="AA70" s="4">
         <v>1017768</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -8419,38 +9178,48 @@
       <c r="G71" s="4">
         <v>187415</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>8191</v>
       </c>
-      <c r="I71" s="4">
+      <c r="K71" s="4">
         <v>7600</v>
       </c>
-      <c r="J71" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>7766</v>
       </c>
-      <c r="K71" s="4">
+      <c r="O71" s="4">
         <v>5962</v>
       </c>
-      <c r="L71" s="4">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4">
         <v>1388517</v>
       </c>
-      <c r="M71" s="4">
+      <c r="S71" s="4">
         <v>1329181</v>
       </c>
-      <c r="N71" s="4">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4">
         <v>73985</v>
       </c>
-      <c r="O71" s="4">
+      <c r="W71" s="4">
         <v>70090</v>
       </c>
-      <c r="P71" s="4">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4">
         <v>47486</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="AA71" s="4">
         <v>42979</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -8469,38 +9238,48 @@
       <c r="G72" s="4">
         <v>8279370</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <v>314643</v>
       </c>
-      <c r="I72" s="4">
+      <c r="K72" s="4">
         <v>292293</v>
       </c>
-      <c r="J72" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>247839</v>
       </c>
-      <c r="K72" s="4">
+      <c r="O72" s="4">
         <v>203388</v>
       </c>
-      <c r="L72" s="4">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4">
         <v>55008234</v>
       </c>
-      <c r="M72" s="4">
+      <c r="S72" s="4">
         <v>56005213</v>
       </c>
-      <c r="N72" s="4">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4">
         <v>2505918</v>
       </c>
-      <c r="O72" s="4">
+      <c r="W72" s="4">
         <v>2389739</v>
       </c>
-      <c r="P72" s="4">
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4">
         <v>1553487</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="AA72" s="4">
         <v>1443555</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -8519,38 +9298,48 @@
       <c r="G73" s="4">
         <v>35905</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <v>1031</v>
       </c>
-      <c r="I73" s="4">
+      <c r="K73" s="4">
         <v>816</v>
       </c>
-      <c r="J73" s="4">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
         <v>799</v>
       </c>
-      <c r="K73" s="4">
+      <c r="O73" s="4">
         <v>725</v>
       </c>
-      <c r="L73" s="4">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4">
         <v>378873</v>
       </c>
-      <c r="M73" s="4">
+      <c r="S73" s="4">
         <v>307511</v>
       </c>
-      <c r="N73" s="4">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4">
         <v>10289</v>
       </c>
-      <c r="O73" s="4">
+      <c r="W73" s="4">
         <v>9258</v>
       </c>
-      <c r="P73" s="4">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4">
         <v>8394</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="AA73" s="4">
         <v>6504</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -8569,38 +9358,48 @@
       <c r="G74" s="4">
         <v>129382</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4">
         <v>4763</v>
       </c>
-      <c r="I74" s="4">
+      <c r="K74" s="4">
         <v>3869</v>
       </c>
-      <c r="J74" s="4">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4">
         <v>3182</v>
       </c>
-      <c r="K74" s="4">
+      <c r="O74" s="4">
         <v>2216</v>
       </c>
-      <c r="L74" s="4">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
-      <c r="N74" s="4">
-        <v>0</v>
-      </c>
-      <c r="O74" s="4">
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4">
+        <v>0</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0</v>
+      </c>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4">
+        <v>0</v>
+      </c>
+      <c r="W74" s="4">
+        <v>0</v>
+      </c>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -8619,38 +9418,48 @@
       <c r="G75" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
         <v>459</v>
       </c>
-      <c r="I75" s="4">
+      <c r="K75" s="4">
         <v>401</v>
       </c>
-      <c r="J75" s="4">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
         <v>265</v>
       </c>
-      <c r="K75" s="4">
+      <c r="O75" s="4">
         <v>256</v>
       </c>
-      <c r="L75" s="4">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4">
         <v>64321</v>
       </c>
-      <c r="M75" s="4">
+      <c r="S75" s="4">
         <v>63229</v>
       </c>
-      <c r="N75" s="4">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4">
         <v>1775</v>
       </c>
-      <c r="O75" s="4">
+      <c r="W75" s="4">
         <v>1594</v>
       </c>
-      <c r="P75" s="4">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4">
         <v>1290</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="AA75" s="4">
         <v>971</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -8669,38 +9478,48 @@
       <c r="G76" s="4">
         <v>24881</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4">
         <v>753</v>
       </c>
-      <c r="I76" s="4">
+      <c r="K76" s="4">
         <v>718</v>
       </c>
-      <c r="J76" s="4">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4">
         <v>620</v>
       </c>
-      <c r="K76" s="4">
+      <c r="O76" s="4">
         <v>551</v>
       </c>
-      <c r="L76" s="4">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4">
         <v>317260</v>
       </c>
-      <c r="M76" s="4">
+      <c r="S76" s="4">
         <v>290915</v>
       </c>
-      <c r="N76" s="4">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4">
         <v>7300</v>
       </c>
-      <c r="O76" s="4">
+      <c r="W76" s="4">
         <v>6500</v>
       </c>
-      <c r="P76" s="4">
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4">
         <v>6302</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="AA76" s="4">
         <v>4755</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -8719,38 +9538,48 @@
       <c r="G77" s="4">
         <v>57012</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4">
         <v>1066</v>
       </c>
-      <c r="I77" s="4">
+      <c r="K77" s="4">
         <v>933</v>
       </c>
-      <c r="J77" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
         <v>1000</v>
       </c>
-      <c r="K77" s="4">
+      <c r="O77" s="4">
         <v>832</v>
       </c>
-      <c r="L77" s="4">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4">
         <v>553821</v>
       </c>
-      <c r="M77" s="4">
+      <c r="S77" s="4">
         <v>472741</v>
       </c>
-      <c r="N77" s="4">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4">
         <v>14048</v>
       </c>
-      <c r="O77" s="4">
+      <c r="W77" s="4">
         <v>12915</v>
       </c>
-      <c r="P77" s="4">
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4">
         <v>13138</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="AA77" s="4">
         <v>8204</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -8769,38 +9598,48 @@
       <c r="G78" s="4">
         <v>18746</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4">
         <v>333</v>
       </c>
-      <c r="I78" s="4">
+      <c r="K78" s="4">
         <v>310</v>
       </c>
-      <c r="J78" s="4">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
         <v>224</v>
       </c>
-      <c r="K78" s="4">
+      <c r="O78" s="4">
         <v>206</v>
       </c>
-      <c r="L78" s="4">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4">
         <v>156503</v>
       </c>
-      <c r="M78" s="4">
+      <c r="S78" s="4">
         <v>147453</v>
       </c>
-      <c r="N78" s="4">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4">
         <v>5904</v>
       </c>
-      <c r="O78" s="4">
+      <c r="W78" s="4">
         <v>5754</v>
       </c>
-      <c r="P78" s="4">
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4">
         <v>3431</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="AA78" s="4">
         <v>2976</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -8819,38 +9658,48 @@
       <c r="G79" s="4">
         <v>94402</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>4904</v>
       </c>
-      <c r="I79" s="4">
+      <c r="K79" s="4">
         <v>4776</v>
       </c>
-      <c r="J79" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>4150</v>
       </c>
-      <c r="K79" s="4">
+      <c r="O79" s="4">
         <v>3349</v>
       </c>
-      <c r="L79" s="4">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4">
         <v>1176436</v>
       </c>
-      <c r="M79" s="4">
+      <c r="S79" s="4">
         <v>1148471</v>
       </c>
-      <c r="N79" s="4">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4">
         <v>66734</v>
       </c>
-      <c r="O79" s="4">
+      <c r="W79" s="4">
         <v>63128</v>
       </c>
-      <c r="P79" s="4">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4">
         <v>42291</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="AA79" s="4">
         <v>39088</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -8869,38 +9718,48 @@
       <c r="G80" s="4">
         <v>26181</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
         <v>786</v>
       </c>
-      <c r="I80" s="4">
+      <c r="K80" s="4">
         <v>617</v>
       </c>
-      <c r="J80" s="4">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4">
         <v>579</v>
       </c>
-      <c r="K80" s="4">
+      <c r="O80" s="4">
         <v>440</v>
       </c>
-      <c r="L80" s="4">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4">
         <v>550177</v>
       </c>
-      <c r="M80" s="4">
+      <c r="S80" s="4">
         <v>472427</v>
       </c>
-      <c r="N80" s="4">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4">
         <v>14042</v>
       </c>
-      <c r="O80" s="4">
+      <c r="W80" s="4">
         <v>12692</v>
       </c>
-      <c r="P80" s="4">
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4">
         <v>8473</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="AA80" s="4">
         <v>7674</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -8919,38 +9778,48 @@
       <c r="G81" s="4">
         <v>33050</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>1311</v>
       </c>
-      <c r="I81" s="4">
+      <c r="K81" s="4">
         <v>1408</v>
       </c>
-      <c r="J81" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>873</v>
       </c>
-      <c r="K81" s="4">
+      <c r="O81" s="4">
         <v>826</v>
       </c>
-      <c r="L81" s="4">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4">
         <v>559758</v>
       </c>
-      <c r="M81" s="4">
+      <c r="S81" s="4">
         <v>547751</v>
       </c>
-      <c r="N81" s="4">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4">
         <v>31610</v>
       </c>
-      <c r="O81" s="4">
+      <c r="W81" s="4">
         <v>32813</v>
       </c>
-      <c r="P81" s="4">
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4">
         <v>20767</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="AA81" s="4">
         <v>20483</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>131</v>
       </c>
@@ -8969,38 +9838,48 @@
       <c r="G82" s="4">
         <v>79226</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <v>4176</v>
       </c>
-      <c r="I82" s="4">
+      <c r="K82" s="4">
         <v>3950</v>
       </c>
-      <c r="J82" s="4">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>3178</v>
       </c>
-      <c r="K82" s="4">
+      <c r="O82" s="4">
         <v>2326</v>
       </c>
-      <c r="L82" s="4">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4">
         <v>447729</v>
       </c>
-      <c r="M82" s="4">
+      <c r="S82" s="4">
         <v>484516</v>
       </c>
-      <c r="N82" s="4">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4">
         <v>19509</v>
       </c>
-      <c r="O82" s="4">
+      <c r="W82" s="4">
         <v>17630</v>
       </c>
-      <c r="P82" s="4">
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4">
         <v>12627</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="AA82" s="4">
         <v>10757</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -9019,38 +9898,48 @@
       <c r="G83" s="4">
         <v>157249</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>6219</v>
       </c>
-      <c r="I83" s="4">
+      <c r="K83" s="4">
         <v>4118</v>
       </c>
-      <c r="J83" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>3206</v>
       </c>
-      <c r="K83" s="4">
+      <c r="O83" s="4">
         <v>1864</v>
       </c>
-      <c r="L83" s="4">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4">
         <v>472847</v>
       </c>
-      <c r="M83" s="4">
+      <c r="S83" s="4">
         <v>413759</v>
       </c>
-      <c r="N83" s="4">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4">
         <v>16085</v>
       </c>
-      <c r="O83" s="4">
+      <c r="W83" s="4">
         <v>13804</v>
       </c>
-      <c r="P83" s="4">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4">
         <v>9829</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="AA83" s="4">
         <v>8077</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>133</v>
       </c>
@@ -9069,38 +9958,48 @@
       <c r="G84" s="4">
         <v>23920</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
         <v>1004</v>
       </c>
-      <c r="I84" s="4">
+      <c r="K84" s="4">
         <v>1031</v>
       </c>
-      <c r="J84" s="4">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
         <v>660</v>
       </c>
-      <c r="K84" s="4">
+      <c r="O84" s="4">
         <v>491</v>
       </c>
-      <c r="L84" s="4">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4">
         <v>34639</v>
       </c>
-      <c r="M84" s="4">
+      <c r="S84" s="4">
         <v>26116</v>
       </c>
-      <c r="N84" s="4">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4">
         <v>1061</v>
       </c>
-      <c r="O84" s="4">
+      <c r="W84" s="4">
         <v>1062</v>
       </c>
-      <c r="P84" s="4">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4">
         <v>524</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="AA84" s="4">
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -9119,38 +10018,48 @@
       <c r="G85" s="4">
         <v>34937</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>1935</v>
       </c>
-      <c r="I85" s="4">
+      <c r="K85" s="4">
         <v>1834</v>
       </c>
-      <c r="J85" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
         <v>1501</v>
       </c>
-      <c r="K85" s="4">
+      <c r="O85" s="4">
         <v>1369</v>
       </c>
-      <c r="L85" s="4">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4">
         <v>416767</v>
       </c>
-      <c r="M85" s="4">
+      <c r="S85" s="4">
         <v>369010</v>
       </c>
-      <c r="N85" s="4">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4">
         <v>17502</v>
       </c>
-      <c r="O85" s="4">
+      <c r="W85" s="4">
         <v>15211</v>
       </c>
-      <c r="P85" s="4">
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4">
         <v>11156</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="AA85" s="4">
         <v>9836</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -9169,38 +10078,48 @@
       <c r="G86" s="4">
         <v>729159</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
         <v>28740</v>
       </c>
-      <c r="I86" s="4">
+      <c r="K86" s="4">
         <v>24781</v>
       </c>
-      <c r="J86" s="4">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4">
         <v>20237</v>
       </c>
-      <c r="K86" s="4">
+      <c r="O86" s="4">
         <v>15451</v>
       </c>
-      <c r="L86" s="4">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4">
         <v>5129131</v>
       </c>
-      <c r="M86" s="4">
+      <c r="S86" s="4">
         <v>4743899</v>
       </c>
-      <c r="N86" s="4">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4">
         <v>205859</v>
       </c>
-      <c r="O86" s="4">
+      <c r="W86" s="4">
         <v>192361</v>
       </c>
-      <c r="P86" s="4">
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4">
         <v>138222</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="AA86" s="4">
         <v>119735</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -9219,38 +10138,48 @@
       <c r="G87" s="4">
         <v>21207</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
         <v>1427</v>
       </c>
-      <c r="I87" s="4">
+      <c r="K87" s="4">
         <v>1444</v>
       </c>
-      <c r="J87" s="4">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
         <v>1206</v>
       </c>
-      <c r="K87" s="4">
+      <c r="O87" s="4">
         <v>1111</v>
       </c>
-      <c r="L87" s="4">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4">
         <v>59592</v>
       </c>
-      <c r="M87" s="4">
+      <c r="S87" s="4">
         <v>41266</v>
       </c>
-      <c r="N87" s="4">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4">
         <v>2921</v>
       </c>
-      <c r="O87" s="4">
+      <c r="W87" s="4">
         <v>2912</v>
       </c>
-      <c r="P87" s="4">
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4">
         <v>1327</v>
       </c>
-      <c r="Q87" s="4">
+      <c r="AA87" s="4">
         <v>1077</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>137</v>
       </c>
@@ -9269,38 +10198,48 @@
       <c r="G88" s="4">
         <v>51846</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4">
         <v>2664</v>
       </c>
-      <c r="I88" s="4">
+      <c r="K88" s="4">
         <v>2559</v>
       </c>
-      <c r="J88" s="4">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4">
         <v>2344</v>
       </c>
-      <c r="K88" s="4">
+      <c r="O88" s="4">
         <v>1807</v>
       </c>
-      <c r="L88" s="4">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4">
         <v>374291</v>
       </c>
-      <c r="M88" s="4">
+      <c r="S88" s="4">
         <v>332430</v>
       </c>
-      <c r="N88" s="4">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4">
         <v>22403</v>
       </c>
-      <c r="O88" s="4">
+      <c r="W88" s="4">
         <v>21577</v>
       </c>
-      <c r="P88" s="4">
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4">
         <v>15508</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="AA88" s="4">
         <v>13925</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -9319,38 +10258,48 @@
       <c r="G89" s="4">
         <v>41498</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4">
         <v>1994</v>
       </c>
-      <c r="I89" s="4">
+      <c r="K89" s="4">
         <v>1926</v>
       </c>
-      <c r="J89" s="4">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4">
         <v>1518</v>
       </c>
-      <c r="K89" s="4">
+      <c r="O89" s="4">
         <v>1194</v>
       </c>
-      <c r="L89" s="4">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4">
         <v>375847</v>
       </c>
-      <c r="M89" s="4">
+      <c r="S89" s="4">
         <v>352914</v>
       </c>
-      <c r="N89" s="4">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4">
         <v>15517</v>
       </c>
-      <c r="O89" s="4">
+      <c r="W89" s="4">
         <v>13939</v>
       </c>
-      <c r="P89" s="4">
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4">
         <v>9785</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="AA89" s="4">
         <v>8682</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -9369,38 +10318,48 @@
       <c r="G90" s="4">
         <v>50759</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4">
         <v>2163</v>
       </c>
-      <c r="I90" s="4">
+      <c r="K90" s="4">
         <v>2175</v>
       </c>
-      <c r="J90" s="4">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
         <v>1900</v>
       </c>
-      <c r="K90" s="4">
+      <c r="O90" s="4">
         <v>1436</v>
       </c>
-      <c r="L90" s="4">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4">
         <v>293494</v>
       </c>
-      <c r="M90" s="4">
+      <c r="S90" s="4">
         <v>249831</v>
       </c>
-      <c r="N90" s="4">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4">
         <v>13303</v>
       </c>
-      <c r="O90" s="4">
+      <c r="W90" s="4">
         <v>12638</v>
       </c>
-      <c r="P90" s="4">
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4">
         <v>9108</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="AA90" s="4">
         <v>9573</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -9419,38 +10378,48 @@
       <c r="G91" s="4">
         <v>49128</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4">
         <v>2919</v>
       </c>
-      <c r="I91" s="4">
+      <c r="K91" s="4">
         <v>2219</v>
       </c>
-      <c r="J91" s="4">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4">
         <v>1780</v>
       </c>
-      <c r="K91" s="4">
+      <c r="O91" s="4">
         <v>995</v>
       </c>
-      <c r="L91" s="4">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4">
         <v>199242</v>
       </c>
-      <c r="M91" s="4">
+      <c r="S91" s="4">
         <v>149724</v>
       </c>
-      <c r="N91" s="4">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4">
         <v>7614</v>
       </c>
-      <c r="O91" s="4">
+      <c r="W91" s="4">
         <v>6813</v>
       </c>
-      <c r="P91" s="4">
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4">
         <v>4101</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="AA91" s="4">
         <v>3448</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>141</v>
       </c>
@@ -9469,38 +10438,48 @@
       <c r="G92" s="4">
         <v>53611</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
         <v>2191</v>
       </c>
-      <c r="I92" s="4">
+      <c r="K92" s="4">
         <v>2012</v>
       </c>
-      <c r="J92" s="4">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
         <v>2022</v>
       </c>
-      <c r="K92" s="4">
+      <c r="O92" s="4">
         <v>1571</v>
       </c>
-      <c r="L92" s="4">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4">
         <v>839767</v>
       </c>
-      <c r="M92" s="4">
+      <c r="S92" s="4">
         <v>841990</v>
       </c>
-      <c r="N92" s="4">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4">
         <v>51723</v>
       </c>
-      <c r="O92" s="4">
+      <c r="W92" s="4">
         <v>49266</v>
       </c>
-      <c r="P92" s="4">
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4">
         <v>34694</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="AA92" s="4">
         <v>32196</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -9519,38 +10498,48 @@
       <c r="G93" s="4">
         <v>87583</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4">
         <v>3872</v>
       </c>
-      <c r="I93" s="4">
+      <c r="K93" s="4">
         <v>3604</v>
       </c>
-      <c r="J93" s="4">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
         <v>2672</v>
       </c>
-      <c r="K93" s="4">
+      <c r="O93" s="4">
         <v>2243</v>
       </c>
-      <c r="L93" s="4">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4">
         <v>1493276</v>
       </c>
-      <c r="M93" s="4">
+      <c r="S93" s="4">
         <v>1433965</v>
       </c>
-      <c r="N93" s="4">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4">
         <v>81142</v>
       </c>
-      <c r="O93" s="4">
+      <c r="W93" s="4">
         <v>77617</v>
       </c>
-      <c r="P93" s="4">
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4">
         <v>51147</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="AA93" s="4">
         <v>47777</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -9569,38 +10558,48 @@
       <c r="G94" s="4">
         <v>4879</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4">
         <v>342</v>
       </c>
-      <c r="I94" s="4">
+      <c r="K94" s="4">
         <v>287</v>
       </c>
-      <c r="J94" s="4">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4">
         <v>266</v>
       </c>
-      <c r="K94" s="4">
+      <c r="O94" s="4">
         <v>221</v>
       </c>
-      <c r="L94" s="4">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4">
         <v>134037</v>
       </c>
-      <c r="M94" s="4">
+      <c r="S94" s="4">
         <v>124587</v>
       </c>
-      <c r="N94" s="4">
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4">
         <v>5005</v>
       </c>
-      <c r="O94" s="4">
+      <c r="W94" s="4">
         <v>4894</v>
       </c>
-      <c r="P94" s="4">
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4">
         <v>3560</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="AA94" s="4">
         <v>3548</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -9619,38 +10618,48 @@
       <c r="G95" s="4">
         <v>0</v>
       </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4">
         <v>0</v>
       </c>
       <c r="K95" s="4">
         <v>0</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4">
         <v>4064</v>
       </c>
-      <c r="M95" s="4">
+      <c r="S95" s="4">
         <v>2145</v>
       </c>
-      <c r="N95" s="4">
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4">
         <v>104</v>
       </c>
-      <c r="O95" s="4">
+      <c r="W95" s="4">
         <v>117</v>
       </c>
-      <c r="P95" s="4">
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4">
         <v>119</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="AA95" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>145</v>
       </c>
@@ -9669,38 +10678,48 @@
       <c r="G96" s="4">
         <v>360511</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4">
         <v>17572</v>
       </c>
-      <c r="I96" s="4">
+      <c r="K96" s="4">
         <v>16226</v>
       </c>
-      <c r="J96" s="4">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4">
         <v>13708</v>
       </c>
-      <c r="K96" s="4">
+      <c r="O96" s="4">
         <v>10578</v>
       </c>
-      <c r="L96" s="4">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4">
         <v>3773610</v>
       </c>
-      <c r="M96" s="4">
+      <c r="S96" s="4">
         <v>3528852</v>
       </c>
-      <c r="N96" s="4">
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4">
         <v>199732</v>
       </c>
-      <c r="O96" s="4">
+      <c r="W96" s="4">
         <v>189773</v>
       </c>
-      <c r="P96" s="4">
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4">
         <v>129349</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="AA96" s="4">
         <v>120262</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -9719,38 +10738,48 @@
       <c r="G97" s="4">
         <v>73365</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4">
         <v>3988</v>
       </c>
-      <c r="I97" s="4">
+      <c r="K97" s="4">
         <v>3829</v>
       </c>
-      <c r="J97" s="4">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4">
         <v>3238</v>
       </c>
-      <c r="K97" s="4">
+      <c r="O97" s="4">
         <v>3007</v>
       </c>
-      <c r="L97" s="4">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4">
         <v>509576</v>
       </c>
-      <c r="M97" s="4">
+      <c r="S97" s="4">
         <v>464896</v>
       </c>
-      <c r="N97" s="4">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4">
         <v>17430</v>
       </c>
-      <c r="O97" s="4">
+      <c r="W97" s="4">
         <v>16907</v>
       </c>
-      <c r="P97" s="4">
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4">
         <v>9629</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="AA97" s="4">
         <v>9452</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -9769,38 +10798,48 @@
       <c r="G98" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L98" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
         <v>158</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q98" s="4" t="s">
+      <c r="S98" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA98" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -9819,38 +10858,48 @@
       <c r="G99" s="4">
         <v>68548</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L99" s="4">
-        <v>396244</v>
-      </c>
-      <c r="M99" s="4">
-        <v>341740</v>
-      </c>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
         <v>158</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4">
+        <v>396244</v>
+      </c>
+      <c r="S99" s="4">
+        <v>341740</v>
+      </c>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q99" s="4" t="s">
+      <c r="W99" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA99" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>149</v>
       </c>
@@ -9869,38 +10918,48 @@
       <c r="G100" s="4">
         <v>26527</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4">
         <v>1498</v>
       </c>
-      <c r="I100" s="4">
+      <c r="K100" s="4">
         <v>1449</v>
       </c>
-      <c r="J100" s="4">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4">
         <v>1038</v>
       </c>
-      <c r="K100" s="4">
+      <c r="O100" s="4">
         <v>881</v>
       </c>
-      <c r="L100" s="4">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4">
         <v>392935</v>
       </c>
-      <c r="M100" s="4">
+      <c r="S100" s="4">
         <v>322594</v>
       </c>
-      <c r="N100" s="4">
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4">
         <v>8253</v>
       </c>
-      <c r="O100" s="4">
+      <c r="W100" s="4">
         <v>6663</v>
       </c>
-      <c r="P100" s="4">
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4">
         <v>4760</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="AA100" s="4">
         <v>4037</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -9919,38 +10978,48 @@
       <c r="G101" s="4">
         <v>44452</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4">
         <v>2386</v>
       </c>
-      <c r="I101" s="4">
+      <c r="K101" s="4">
         <v>2118</v>
       </c>
-      <c r="J101" s="4">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4">
         <v>1181</v>
       </c>
-      <c r="K101" s="4">
+      <c r="O101" s="4">
         <v>947</v>
       </c>
-      <c r="L101" s="4">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4">
         <v>562836</v>
       </c>
-      <c r="M101" s="4">
+      <c r="S101" s="4">
         <v>455863</v>
       </c>
-      <c r="N101" s="4">
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4">
         <v>17621</v>
       </c>
-      <c r="O101" s="4">
+      <c r="W101" s="4">
         <v>14870</v>
       </c>
-      <c r="P101" s="4">
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4">
         <v>9362</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="AA101" s="4">
         <v>7870</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -9969,38 +11038,48 @@
       <c r="G102" s="4">
         <v>110595</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4">
         <v>3907</v>
       </c>
-      <c r="I102" s="4">
+      <c r="K102" s="4">
         <v>2817</v>
       </c>
-      <c r="J102" s="4">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4">
         <v>2680</v>
       </c>
-      <c r="K102" s="4">
+      <c r="O102" s="4">
         <v>2185</v>
       </c>
-      <c r="L102" s="4">
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4">
         <v>791928</v>
       </c>
-      <c r="M102" s="4">
+      <c r="S102" s="4">
         <v>655864</v>
       </c>
-      <c r="N102" s="4">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4">
         <v>35734</v>
       </c>
-      <c r="O102" s="4">
+      <c r="W102" s="4">
         <v>32331</v>
       </c>
-      <c r="P102" s="4">
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4">
         <v>28221</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="AA102" s="4">
         <v>23090</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -10019,38 +11098,48 @@
       <c r="G103" s="4">
         <v>16408</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4">
         <v>1175</v>
       </c>
-      <c r="I103" s="4">
+      <c r="K103" s="4">
         <v>1134</v>
       </c>
-      <c r="J103" s="4">
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4">
         <v>731</v>
       </c>
-      <c r="K103" s="4">
+      <c r="O103" s="4">
         <v>593</v>
       </c>
-      <c r="L103" s="4">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4">
         <v>307922</v>
       </c>
-      <c r="M103" s="4">
+      <c r="S103" s="4">
         <v>272762</v>
       </c>
-      <c r="N103" s="4">
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4">
         <v>12659</v>
       </c>
-      <c r="O103" s="4">
+      <c r="W103" s="4">
         <v>11020</v>
       </c>
-      <c r="P103" s="4">
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4">
         <v>7922</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="AA103" s="4">
         <v>7262</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -10069,38 +11158,48 @@
       <c r="G104" s="4">
         <v>29936</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4">
         <v>1545</v>
       </c>
-      <c r="I104" s="4">
+      <c r="K104" s="4">
         <v>1421</v>
       </c>
-      <c r="J104" s="4">
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4">
         <v>1167</v>
       </c>
-      <c r="K104" s="4">
+      <c r="O104" s="4">
         <v>908</v>
       </c>
-      <c r="L104" s="4">
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4">
         <v>363147</v>
       </c>
-      <c r="M104" s="4">
+      <c r="S104" s="4">
         <v>325840</v>
       </c>
-      <c r="N104" s="4">
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4">
         <v>8994</v>
       </c>
-      <c r="O104" s="4">
+      <c r="W104" s="4">
         <v>8155</v>
       </c>
-      <c r="P104" s="4">
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4">
         <v>6137</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="AA104" s="4">
         <v>5508</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -10119,38 +11218,48 @@
       <c r="G105" s="4">
         <v>169850</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4">
         <v>6378</v>
       </c>
-      <c r="I105" s="4">
+      <c r="K105" s="4">
         <v>6128</v>
       </c>
-      <c r="J105" s="4">
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4">
         <v>3557</v>
       </c>
-      <c r="K105" s="4">
+      <c r="O105" s="4">
         <v>3305</v>
       </c>
-      <c r="L105" s="4">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4">
         <v>850588</v>
       </c>
-      <c r="M105" s="4">
+      <c r="S105" s="4">
         <v>727498</v>
       </c>
-      <c r="N105" s="4">
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4">
         <v>21301</v>
       </c>
-      <c r="O105" s="4">
+      <c r="W105" s="4">
         <v>19812</v>
       </c>
-      <c r="P105" s="4">
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4">
         <v>13341</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="AA105" s="4">
         <v>11574</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -10169,38 +11278,48 @@
       <c r="G106" s="4">
         <v>539681</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4">
         <v>20877</v>
       </c>
-      <c r="I106" s="4">
+      <c r="K106" s="4">
         <v>18896</v>
       </c>
-      <c r="J106" s="4">
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4">
         <v>13592</v>
       </c>
-      <c r="K106" s="4">
+      <c r="O106" s="4">
         <v>11826</v>
       </c>
-      <c r="L106" s="4">
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4">
         <v>4175176</v>
       </c>
-      <c r="M106" s="4">
+      <c r="S106" s="4">
         <v>3567057</v>
       </c>
-      <c r="N106" s="4">
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4">
         <v>121992</v>
       </c>
-      <c r="O106" s="4">
+      <c r="W106" s="4">
         <v>109758</v>
       </c>
-      <c r="P106" s="4">
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4">
         <v>79372</v>
       </c>
-      <c r="Q106" s="4">
+      <c r="AA106" s="4">
         <v>68793</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -10219,38 +11338,48 @@
       <c r="G107" s="4">
         <v>1629351</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4">
         <v>67189</v>
       </c>
-      <c r="I107" s="4">
+      <c r="K107" s="4">
         <v>59903</v>
       </c>
-      <c r="J107" s="4">
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4">
         <v>47537</v>
       </c>
-      <c r="K107" s="4">
+      <c r="O107" s="4">
         <v>37855</v>
       </c>
-      <c r="L107" s="4">
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4">
         <v>13077917</v>
       </c>
-      <c r="M107" s="4">
+      <c r="S107" s="4">
         <v>11839808</v>
       </c>
-      <c r="N107" s="4">
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4">
         <v>527583</v>
       </c>
-      <c r="O107" s="4">
+      <c r="W107" s="4">
         <v>491892</v>
       </c>
-      <c r="P107" s="4">
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4">
         <v>346943</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="AA107" s="4">
         <v>308790</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>157</v>
       </c>
@@ -10269,38 +11398,48 @@
       <c r="G108" s="4">
         <v>9899721</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4">
         <v>381832</v>
       </c>
-      <c r="I108" s="4">
+      <c r="K108" s="4">
         <v>352196</v>
       </c>
-      <c r="J108" s="4">
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4">
         <v>295376</v>
       </c>
-      <c r="K108" s="4">
+      <c r="O108" s="4">
         <v>241243</v>
       </c>
-      <c r="L108" s="4">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4">
         <v>68086151</v>
       </c>
-      <c r="M108" s="4">
+      <c r="S108" s="4">
         <v>67845021</v>
       </c>
-      <c r="N108" s="4">
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4">
         <v>3033591</v>
       </c>
-      <c r="O108" s="4">
+      <c r="W108" s="4">
         <v>2881631</v>
       </c>
-      <c r="P108" s="4">
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4">
         <v>1900430</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="AA108" s="4">
         <v>1752345</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -10316,8 +11455,18 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -10333,8 +11482,18 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -10350,8 +11509,18 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -10367,6 +11536,16 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6BB9A-767A-48C4-8E7B-64FEA0A76366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21233DF-9094-4B59-B850-EB13F71B863D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
   <si>
     <t>губ</t>
   </si>
@@ -563,12 +563,6 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
-  </si>
-  <si>
-    <t>2Б869</t>
-  </si>
-  <si>
-    <t>1425;</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -4905,7 +4899,7 @@
   <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,10 +4947,10 @@
         <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>167</v>
@@ -4965,10 +4959,10 @@
         <v>168</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>169</v>
@@ -4977,10 +4971,10 @@
         <v>170</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>171</v>
@@ -4989,10 +4983,10 @@
         <v>172</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>173</v>
@@ -5001,10 +4995,10 @@
         <v>174</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>175</v>
@@ -5013,10 +5007,10 @@
         <v>176</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5184,8 +5178,8 @@
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4" t="s">
-        <v>177</v>
+      <c r="V4" s="4">
+        <v>25869</v>
       </c>
       <c r="W4" s="4">
         <v>24578</v>
@@ -9415,8 +9409,8 @@
       <c r="F75" s="4">
         <v>17631</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>178</v>
+      <c r="G75" s="4">
+        <v>14253</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D0C8F2-58E5-4620-92EC-BAFCF2B8ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06B73E-B19C-4A33-9B0E-A66B8AA8139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57525" yWindow="60" windowWidth="29025" windowHeight="23205" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
+    <workbookView xWindow="57495" yWindow="75" windowWidth="27645" windowHeight="22020" activeTab="1" xr2:uid="{F4557106-ECD8-418F-B5A4-57D873BC11D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -673,6 +673,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4934,10 +4935,10 @@
   <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10563,12 +10564,12 @@
       <c r="AA61" s="4">
         <v>28204</v>
       </c>
-      <c r="AB61" s="3">
-        <v>59431</v>
+      <c r="AB61" s="10">
+        <v>59434</v>
       </c>
       <c r="AC61" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
